--- a/CEUAS/meta/inventory_comparison_2/code/station_configuration/hara_station_configuration.xlsx
+++ b/CEUAS/meta/inventory_comparison_2/code/station_configuration/hara_station_configuration.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -627,7 +626,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0-20000-0-22235</t>
+          <t>0-20000-0-23383</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -637,14 +636,14 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>22235</v>
+        <v>23383</v>
       </c>
       <c r="F2" t="n">
         <v>3</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>KRASNOSCEL'E</t>
+          <t>AGATA</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
@@ -653,20 +652,20 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>37.05083333333333</v>
+        <v>93.49250000000001</v>
       </c>
       <c r="L2" t="n">
-        <v>67.35055555555554</v>
+        <v>66.92611111111111</v>
       </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1992-03-08</t>
+          <t>1962-03-09</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1992-03-08</t>
+          <t>1962-07-21</t>
         </is>
       </c>
       <c r="P2" t="n">
@@ -688,7 +687,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>Kirovsk</t>
+          <t>None</t>
         </is>
       </c>
       <c r="V2" t="inlineStr"/>
@@ -727,7 +726,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0-20000-0-22408</t>
+          <t>0-20000-0-22235</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -737,14 +736,14 @@
         <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>22408</v>
+        <v>22235</v>
       </c>
       <c r="F3" t="n">
         <v>3</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>KALEVALA</t>
+          <t>KRASNOSCEL'E</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
@@ -753,20 +752,20 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>31.15</v>
+        <v>37.05083333333333</v>
       </c>
       <c r="L3" t="n">
-        <v>65.21666666666667</v>
+        <v>67.35055555555554</v>
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1962-08-20</t>
+          <t>1992-03-08</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1962-12-08</t>
+          <t>1992-03-08</t>
         </is>
       </c>
       <c r="P3" t="n">
@@ -788,7 +787,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>Kostomuksha</t>
+          <t>Kirovsk</t>
         </is>
       </c>
       <c r="V3" t="inlineStr"/>
@@ -827,7 +826,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0-20000-0-25248</t>
+          <t>0-20000-0-22408</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -837,14 +836,14 @@
         <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>25248</v>
+        <v>22408</v>
       </c>
       <c r="F4" t="n">
         <v>3</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>ILIRNEJ</t>
+          <t>KALEVALA</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
@@ -853,20 +852,20 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>167.9666666666667</v>
+        <v>31.15</v>
       </c>
       <c r="L4" t="n">
-        <v>67.25</v>
+        <v>65.21666666666667</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1971-02-25</t>
+          <t>1962-08-20</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1971-06-25</t>
+          <t>1962-12-08</t>
         </is>
       </c>
       <c r="P4" t="n">
@@ -888,7 +887,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Kostomuksha</t>
         </is>
       </c>
       <c r="V4" t="inlineStr"/>
@@ -927,7 +926,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0-20111-0-21825</t>
+          <t>0-20000-0-25248</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -937,14 +936,14 @@
         <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>21825</v>
+        <v>25248</v>
       </c>
       <c r="F5" t="n">
         <v>3</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t xml:space="preserve">OSTROV MOSTAKH </t>
+          <t>ILIRNEJ</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
@@ -953,20 +952,20 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>129.92</v>
+        <v>167.9666666666667</v>
       </c>
       <c r="L5" t="n">
-        <v>71.53</v>
+        <v>67.25</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1987-04-10</t>
+          <t>1971-02-25</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1990-12-22</t>
+          <t>1971-06-25</t>
         </is>
       </c>
       <c r="P5" t="n">
@@ -1027,7 +1026,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0-20111-0-22205</t>
+          <t>0-20111-0-21825</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -1037,14 +1036,14 @@
         <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>22205</v>
+        <v>21825</v>
       </c>
       <c r="F6" t="n">
         <v>3</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>ENA</t>
+          <t xml:space="preserve">OSTROV MOSTAKH </t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
@@ -1053,20 +1052,20 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>31.17</v>
+        <v>129.92</v>
       </c>
       <c r="L6" t="n">
-        <v>67.59999999999999</v>
+        <v>71.53</v>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr">
         <is>
-          <t>1986-10-31</t>
+          <t>1987-04-10</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1993-09-15</t>
+          <t>1990-12-22</t>
         </is>
       </c>
       <c r="P6" t="n">
@@ -1088,7 +1087,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>Kovdor</t>
+          <t>None</t>
         </is>
       </c>
       <c r="V6" t="inlineStr"/>
@@ -1227,7 +1226,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0-20000-0-04231</t>
+          <t>0-20111-0-22205</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -1237,14 +1236,14 @@
         <v>7</v>
       </c>
       <c r="E8" t="n">
-        <v>4231</v>
+        <v>22205</v>
       </c>
       <c r="F8" t="n">
         <v>3</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>MITTARFIK KANGERLUSSUAQ (SDR. STROEMFJORD LUFTHAVN)</t>
+          <t>ENA</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
@@ -1253,20 +1252,20 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>-50.71666666666667</v>
+        <v>31.17</v>
       </c>
       <c r="L8" t="n">
-        <v>67.01666666666667</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
-          <t>1962-04-30</t>
+          <t>1986-10-31</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1992-10-14</t>
+          <t>1993-09-15</t>
         </is>
       </c>
       <c r="P8" t="n">
@@ -1284,11 +1283,11 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>83</v>
+        <v>190</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Kovdor</t>
         </is>
       </c>
       <c r="V8" t="inlineStr"/>
@@ -1327,7 +1326,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0-20000-0-04330</t>
+          <t>0-20000-0-04231</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -1337,14 +1336,14 @@
         <v>8</v>
       </c>
       <c r="E9" t="n">
-        <v>4330</v>
+        <v>4231</v>
       </c>
       <c r="F9" t="n">
         <v>3</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>DANEBORG</t>
+          <t>MITTARFIK KANGERLUSSUAQ (SDR. STROEMFJORD LUFTHAVN)</t>
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
@@ -1353,20 +1352,20 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>-20.21694444444444</v>
+        <v>-50.71666666666667</v>
       </c>
       <c r="L9" t="n">
-        <v>74.30749999999999</v>
+        <v>67.01666666666667</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>1968-03-04</t>
+          <t>1962-04-30</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1970-08-22</t>
+          <t>1992-10-14</t>
         </is>
       </c>
       <c r="P9" t="n">
@@ -1427,7 +1426,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0-20111-0-04230</t>
+          <t>0-20000-0-04330</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -1437,14 +1436,14 @@
         <v>9</v>
       </c>
       <c r="E10" t="n">
-        <v>4230</v>
+        <v>4330</v>
       </c>
       <c r="F10" t="n">
         <v>3</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>HOLSTEINBORG</t>
+          <t>DANEBORG</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
@@ -1453,20 +1452,20 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>-53.67</v>
+        <v>-20.21694444444444</v>
       </c>
       <c r="L10" t="n">
-        <v>66.92</v>
+        <v>74.30749999999999</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>1963-03-03</t>
+          <t>1968-03-04</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1971-08-02</t>
+          <t>1970-08-22</t>
         </is>
       </c>
       <c r="P10" t="n">
@@ -1527,7 +1526,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0-20001-0-01010</t>
+          <t>0-20111-0-04230</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -1537,14 +1536,14 @@
         <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>1010</v>
+        <v>4230</v>
       </c>
       <c r="F11" t="n">
         <v>3</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>ANDOYA (1010-1)</t>
+          <t>HOLSTEINBORG</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
@@ -1553,20 +1552,20 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>16.13083333333334</v>
+        <v>-53.67</v>
       </c>
       <c r="L11" t="n">
-        <v>69.31527777777778</v>
+        <v>66.92</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>1966-01-01</t>
+          <t>1963-03-03</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1968-07-18</t>
+          <t>1971-08-02</t>
         </is>
       </c>
       <c r="P11" t="n">
@@ -1584,11 +1583,11 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>166</v>
+        <v>83</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>Harstad</t>
+          <t>None</t>
         </is>
       </c>
       <c r="V11" t="inlineStr"/>
@@ -1627,7 +1626,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0-20000-0-25282</t>
+          <t>0-20700-0-04210</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -1637,14 +1636,14 @@
         <v>11</v>
       </c>
       <c r="E12" t="n">
-        <v>25282</v>
+        <v>4210</v>
       </c>
       <c r="F12" t="n">
         <v>3</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>MYS VANKAREM</t>
+          <t xml:space="preserve">UPERNAVIK                </t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
@@ -1653,20 +1652,20 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>-175.8333333333333</v>
+        <v>-56.16666666666666</v>
       </c>
       <c r="L12" t="n">
-        <v>67.83333333333333</v>
+        <v>72.78333333333333</v>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>1980-03-22</t>
+          <t>1962-05-15</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1996-05-13</t>
+          <t>1971-08-04</t>
         </is>
       </c>
       <c r="P12" t="n">
@@ -1684,7 +1683,7 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>190</v>
+        <v>83</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
@@ -1727,7 +1726,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0-20300-0-01020</t>
+          <t>0-20001-0-01010</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1737,14 +1736,14 @@
         <v>12</v>
       </c>
       <c r="E13" t="n">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="F13" t="n">
         <v>3</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>KINNVIKA STATION</t>
+          <t>ANDOYA (1010-1)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
@@ -1753,20 +1752,20 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>18.3</v>
+        <v>16.13083333333334</v>
       </c>
       <c r="L13" t="n">
-        <v>80.05</v>
+        <v>69.31527777777778</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>1958-05-02</t>
+          <t>1966-01-01</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1963-08-19</t>
+          <t>1968-07-18</t>
         </is>
       </c>
       <c r="P13" t="n">
@@ -1784,11 +1783,11 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>200</v>
+        <v>166</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Harstad</t>
         </is>
       </c>
       <c r="V13" t="inlineStr"/>
@@ -1827,7 +1826,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0-20000-0-22165</t>
+          <t>0-20000-0-25282</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -1837,14 +1836,14 @@
         <v>13</v>
       </c>
       <c r="E14" t="n">
-        <v>22165</v>
+        <v>25282</v>
       </c>
       <c r="F14" t="n">
         <v>3</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>KANIN NOS</t>
+          <t>MYS VANKAREM</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
@@ -1853,20 +1852,20 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>43.2875</v>
+        <v>-175.8333333333333</v>
       </c>
       <c r="L14" t="n">
-        <v>68.65527777777778</v>
+        <v>67.83333333333333</v>
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1980-03-22</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>1962-10-31</t>
+          <t>1996-05-13</t>
         </is>
       </c>
       <c r="P14" t="n">
@@ -1888,7 +1887,7 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>Arkhangelsk</t>
+          <t>None</t>
         </is>
       </c>
       <c r="V14" t="inlineStr"/>
@@ -1927,7 +1926,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0-20300-0-20047</t>
+          <t>0-20000-0-01013</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -1937,14 +1936,14 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>20047</v>
+        <v>1005</v>
       </c>
       <c r="F15" t="n">
         <v>3</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>BUKHTA TIKHAYA/GUKER IS.</t>
+          <t>ISFJORD RADIO</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
@@ -1953,20 +1952,20 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>52.8</v>
+        <v>13.61916666666667</v>
       </c>
       <c r="L15" t="n">
-        <v>80.45</v>
+        <v>78.0625</v>
       </c>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1958-05-04</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>1963-04-28</t>
+          <t>1968-04-20</t>
         </is>
       </c>
       <c r="P15" t="n">
@@ -1984,7 +1983,7 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
@@ -2027,7 +2026,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0-20001-0-01004</t>
+          <t>0-20000-0-23552</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -2037,14 +2036,14 @@
         <v>15</v>
       </c>
       <c r="E16" t="n">
-        <v>1004</v>
+        <v>23552</v>
       </c>
       <c r="F16" t="n">
         <v>3</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>NY-ALESUND II</t>
+          <t>TARKO-SALE</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
@@ -2053,20 +2052,20 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>11.92222222222222</v>
+        <v>77.77083333333333</v>
       </c>
       <c r="L16" t="n">
-        <v>78.92333333333333</v>
+        <v>64.91138888888889</v>
       </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
-          <t>1993-04-13</t>
+          <t>1958-05-03</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>1996-07-06</t>
+          <t>1965-08-13</t>
         </is>
       </c>
       <c r="P16" t="n">
@@ -2084,11 +2083,11 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Tarko-Sale</t>
         </is>
       </c>
       <c r="V16" t="inlineStr"/>
@@ -2127,7 +2126,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0-20000-0-01025</t>
+          <t>0-20300-0-01020</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -2137,14 +2136,14 @@
         <v>16</v>
       </c>
       <c r="E17" t="n">
-        <v>1030</v>
+        <v>1020</v>
       </c>
       <c r="F17" t="n">
         <v>3</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>TROMSO/LANGNES</t>
+          <t>KINNVIKA STATION</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
@@ -2153,20 +2152,20 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>18.91305555555556</v>
+        <v>18.3</v>
       </c>
       <c r="L17" t="n">
-        <v>69.67666666666668</v>
+        <v>80.05</v>
       </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1958-05-02</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>1963-04-28</t>
+          <t>1963-08-19</t>
         </is>
       </c>
       <c r="P17" t="n">
@@ -2184,11 +2183,11 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>166</v>
+        <v>200</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>Tromso</t>
+          <t>None</t>
         </is>
       </c>
       <c r="V17" t="inlineStr"/>
@@ -2227,7 +2226,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0-20111-0-71918</t>
+          <t>0-20000-0-22165</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -2237,14 +2236,14 @@
         <v>17</v>
       </c>
       <c r="E18" t="n">
-        <v>71918</v>
+        <v>22165</v>
       </c>
       <c r="F18" t="n">
         <v>3</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>ARCTIC BAY, NT</t>
+          <t>KANIN NOS</t>
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
@@ -2253,20 +2252,20 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>-85.15000000000001</v>
+        <v>43.2875</v>
       </c>
       <c r="L18" t="n">
-        <v>73.03</v>
+        <v>68.65527777777778</v>
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
-          <t>1948-01-01</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>1966-06-30</t>
+          <t>1962-10-31</t>
         </is>
       </c>
       <c r="P18" t="n">
@@ -2284,11 +2283,11 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Arkhangelsk</t>
         </is>
       </c>
       <c r="V18" t="inlineStr"/>
@@ -2327,7 +2326,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0-20300-0-71968</t>
+          <t>0-20300-0-20047</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2337,14 +2336,14 @@
         <v>18</v>
       </c>
       <c r="E19" t="n">
-        <v>71968</v>
+        <v>20047</v>
       </c>
       <c r="F19" t="n">
         <v>3</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>AKLAVIK</t>
+          <t>BUKHTA TIKHAYA/GUKER IS.</t>
         </is>
       </c>
       <c r="H19" t="inlineStr"/>
@@ -2353,20 +2352,20 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>-135</v>
+        <v>52.8</v>
       </c>
       <c r="L19" t="n">
-        <v>68.23</v>
+        <v>80.45</v>
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
         <is>
-          <t>1950-01-01</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>1960-09-12</t>
+          <t>1963-04-28</t>
         </is>
       </c>
       <c r="P19" t="n">
@@ -2384,7 +2383,7 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
@@ -2427,7 +2426,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0-20000-0-23078</t>
+          <t>0-20300-0-23074</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2437,14 +2436,14 @@
         <v>19</v>
       </c>
       <c r="E20" t="n">
-        <v>23078</v>
+        <v>23074</v>
       </c>
       <c r="F20" t="n">
         <v>3</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>NORIL'SK</t>
+          <t>DUDINKA</t>
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
@@ -2453,20 +2452,20 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>88.26388888888889</v>
+        <v>86.17</v>
       </c>
       <c r="L20" t="n">
-        <v>69.34722222222221</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
-          <t>1980-02-05</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>1996-05-23</t>
+          <t>1992-10-13</t>
         </is>
       </c>
       <c r="P20" t="n">
@@ -2488,7 +2487,7 @@
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>Norilsk</t>
+          <t>Dudinka</t>
         </is>
       </c>
       <c r="V20" t="inlineStr"/>
@@ -2527,7 +2526,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0-20000-0-71938</t>
+          <t>0-20001-0-01004</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -2537,14 +2536,14 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>71938</v>
+        <v>1004</v>
       </c>
       <c r="F21" t="n">
         <v>3</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>KUGLUKTUK A, NU</t>
+          <t>NY-ALESUND II</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
@@ -2553,20 +2552,20 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>-115.1438888888889</v>
+        <v>11.92222222222222</v>
       </c>
       <c r="L21" t="n">
-        <v>67.81666666666666</v>
+        <v>78.92333333333333</v>
       </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
         <is>
-          <t>1948-01-02</t>
+          <t>1993-04-13</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>1970-02-17</t>
+          <t>1996-07-06</t>
         </is>
       </c>
       <c r="P21" t="n">
@@ -2584,7 +2583,7 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>37</v>
+        <v>166</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
@@ -2627,7 +2626,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0-20000-0-04339</t>
+          <t>0-20000-0-01025</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -2637,14 +2636,14 @@
         <v>21</v>
       </c>
       <c r="E22" t="n">
-        <v>4339</v>
+        <v>1030</v>
       </c>
       <c r="F22" t="n">
         <v>3</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>ITTOQQORTOORMIIT (SCORESBYSUND)</t>
+          <t>TROMSO/LANGNES</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
@@ -2653,20 +2652,20 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>-21.95111111111111</v>
+        <v>18.91305555555556</v>
       </c>
       <c r="L22" t="n">
-        <v>70.48444444444445</v>
+        <v>69.67666666666668</v>
       </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
         <is>
-          <t>1980-10-25</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>1996-07-06</t>
+          <t>1963-04-28</t>
         </is>
       </c>
       <c r="P22" t="n">
@@ -2684,11 +2683,11 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>83</v>
+        <v>166</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Tromso</t>
         </is>
       </c>
       <c r="V22" t="inlineStr"/>
@@ -2727,7 +2726,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0-20000-0-02185</t>
+          <t>0-20300-0-04310</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2737,14 +2736,14 @@
         <v>22</v>
       </c>
       <c r="E23" t="n">
-        <v>2185</v>
+        <v>4310</v>
       </c>
       <c r="F23" t="n">
         <v>3</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>LULEA-KALLAX (2185-0)</t>
+          <t>NORD</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
@@ -2753,20 +2752,20 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>22.11444444444444</v>
+        <v>-16.67</v>
       </c>
       <c r="L23" t="n">
-        <v>65.54333333333334</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
         <is>
-          <t>1977-08-05</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>1996-07-06</t>
+          <t>1996-05-10</t>
         </is>
       </c>
       <c r="P23" t="n">
@@ -2784,11 +2783,11 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>196</v>
+        <v>83</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>Lulea</t>
+          <t>None</t>
         </is>
       </c>
       <c r="V23" t="inlineStr"/>
@@ -2827,7 +2826,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0-20000-0-71074</t>
+          <t>0-20111-0-71918</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -2837,14 +2836,14 @@
         <v>23</v>
       </c>
       <c r="E24" t="n">
-        <v>71074</v>
+        <v>71918</v>
       </c>
       <c r="F24" t="n">
         <v>3</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>ISACHSEN (AUT), NU</t>
+          <t>ARCTIC BAY, NT</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
@@ -2853,20 +2852,20 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>-103.5544444444444</v>
+        <v>-85.15000000000001</v>
       </c>
       <c r="L24" t="n">
-        <v>78.79222222222222</v>
+        <v>73.03</v>
       </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
-          <t>1948-08-18</t>
+          <t>1948-01-01</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>1978-06-19</t>
+          <t>1966-06-30</t>
         </is>
       </c>
       <c r="P24" t="n">
@@ -2927,7 +2926,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0-20300-0-21358</t>
+          <t>0-20001-0-22522</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2937,14 +2936,14 @@
         <v>24</v>
       </c>
       <c r="E25" t="n">
-        <v>21358</v>
+        <v>22522</v>
       </c>
       <c r="F25" t="n">
         <v>3</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>OSTROV ZOHOVA</t>
+          <t>KEM'</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
@@ -2953,20 +2952,20 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>152.83</v>
+        <v>34.65</v>
       </c>
       <c r="L25" t="n">
-        <v>76.15000000000001</v>
+        <v>64.95</v>
       </c>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
-          <t>1958-05-02</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>1993-11-15</t>
+          <t>1973-05-17</t>
         </is>
       </c>
       <c r="P25" t="n">
@@ -2988,7 +2987,7 @@
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Kem</t>
         </is>
       </c>
       <c r="V25" t="inlineStr"/>
@@ -3027,7 +3026,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0-20000-0-23383</t>
+          <t>0-20000-0-25042</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -3037,14 +3036,14 @@
         <v>25</v>
       </c>
       <c r="E26" t="n">
-        <v>23383</v>
+        <v>25042</v>
       </c>
       <c r="F26" t="n">
         <v>3</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>AGATA</t>
+          <t>AJON</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
@@ -3053,20 +3052,20 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>93.49250000000001</v>
+        <v>167.9688888888889</v>
       </c>
       <c r="L26" t="n">
-        <v>66.92611111111111</v>
+        <v>69.91861111111112</v>
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
-          <t>1962-03-09</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>1962-07-21</t>
+          <t>1995-12-09</t>
         </is>
       </c>
       <c r="P26" t="n">
@@ -3127,7 +3126,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0-20700-0-04210</t>
+          <t>0-20300-0-71968</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -3137,14 +3136,14 @@
         <v>26</v>
       </c>
       <c r="E27" t="n">
-        <v>4210</v>
+        <v>71968</v>
       </c>
       <c r="F27" t="n">
         <v>3</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t xml:space="preserve">UPERNAVIK                </t>
+          <t>AKLAVIK</t>
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
@@ -3153,20 +3152,20 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>-56.16666666666666</v>
+        <v>-135</v>
       </c>
       <c r="L27" t="n">
-        <v>72.78333333333333</v>
+        <v>68.23</v>
       </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
-          <t>1962-05-15</t>
+          <t>1950-01-01</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>1971-08-04</t>
+          <t>1960-09-12</t>
         </is>
       </c>
       <c r="P27" t="n">
@@ -3184,7 +3183,7 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
@@ -3227,7 +3226,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0-20000-0-01013</t>
+          <t>0-20000-0-21946</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -3237,14 +3236,14 @@
         <v>27</v>
       </c>
       <c r="E28" t="n">
-        <v>1005</v>
+        <v>21946</v>
       </c>
       <c r="F28" t="n">
         <v>3</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>ISFJORD RADIO</t>
+          <t>CHOKURDAH</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
@@ -3253,20 +3252,20 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>13.61916666666667</v>
+        <v>147.8833333333333</v>
       </c>
       <c r="L28" t="n">
-        <v>78.0625</v>
+        <v>70.61666666666666</v>
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
-          <t>1958-05-04</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>1968-04-20</t>
+          <t>1996-07-06</t>
         </is>
       </c>
       <c r="P28" t="n">
@@ -3284,7 +3283,7 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
@@ -3327,7 +3326,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0-20000-0-23552</t>
+          <t>0-20000-0-25399</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3337,14 +3336,14 @@
         <v>28</v>
       </c>
       <c r="E29" t="n">
-        <v>23552</v>
+        <v>25399</v>
       </c>
       <c r="F29" t="n">
         <v>3</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>TARKO-SALE</t>
+          <t>MYS UELEN</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
@@ -3353,20 +3352,20 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>77.77083333333333</v>
+        <v>-169.8347222222222</v>
       </c>
       <c r="L29" t="n">
-        <v>64.91138888888889</v>
+        <v>66.16277777777778</v>
       </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
-          <t>1958-05-03</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>1965-08-13</t>
+          <t>1996-04-12</t>
         </is>
       </c>
       <c r="P29" t="n">
@@ -3388,7 +3387,7 @@
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>Tarko-Sale</t>
+          <t>None</t>
         </is>
       </c>
       <c r="V29" t="inlineStr"/>
@@ -3427,7 +3426,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0-20300-0-23074</t>
+          <t>0-20000-0-23078</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3437,14 +3436,14 @@
         <v>29</v>
       </c>
       <c r="E30" t="n">
-        <v>23074</v>
+        <v>23078</v>
       </c>
       <c r="F30" t="n">
         <v>3</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>DUDINKA</t>
+          <t>NORIL'SK</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
@@ -3453,20 +3452,20 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>86.17</v>
+        <v>88.26388888888889</v>
       </c>
       <c r="L30" t="n">
-        <v>69.40000000000001</v>
+        <v>69.34722222222221</v>
       </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1980-02-05</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>1992-10-13</t>
+          <t>1996-05-23</t>
         </is>
       </c>
       <c r="P30" t="n">
@@ -3488,7 +3487,7 @@
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>Dudinka</t>
+          <t>Norilsk</t>
         </is>
       </c>
       <c r="V30" t="inlineStr"/>
@@ -3527,7 +3526,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0-20000-0-23274</t>
+          <t>0-20300-0-04340</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3537,14 +3536,14 @@
         <v>30</v>
       </c>
       <c r="E31" t="n">
-        <v>23274</v>
+        <v>4340</v>
       </c>
       <c r="F31" t="n">
         <v>3</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>IGARKA</t>
+          <t>KAP TOBIN</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
@@ -3553,10 +3552,10 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>86.56666666666666</v>
+        <v>-21.97</v>
       </c>
       <c r="L31" t="n">
-        <v>67.46666666666667</v>
+        <v>70.42</v>
       </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
@@ -3566,7 +3565,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>1992-02-15</t>
+          <t>1980-10-28</t>
         </is>
       </c>
       <c r="P31" t="n">
@@ -3584,11 +3583,11 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>190</v>
+        <v>83</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>Dudinka</t>
+          <t>None</t>
         </is>
       </c>
       <c r="V31" t="inlineStr"/>
@@ -3627,7 +3626,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0-20300-0-04310</t>
+          <t>0-20000-0-71938</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3637,14 +3636,14 @@
         <v>31</v>
       </c>
       <c r="E32" t="n">
-        <v>4310</v>
+        <v>71938</v>
       </c>
       <c r="F32" t="n">
         <v>3</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>NORD</t>
+          <t>KUGLUKTUK A, NU</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
@@ -3653,20 +3652,20 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>-16.67</v>
+        <v>-115.1438888888889</v>
       </c>
       <c r="L32" t="n">
-        <v>81.59999999999999</v>
+        <v>67.81666666666666</v>
       </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1948-01-02</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>1996-05-10</t>
+          <t>1970-02-17</t>
         </is>
       </c>
       <c r="P32" t="n">
@@ -3684,7 +3683,7 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
@@ -3727,7 +3726,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0-20001-0-22522</t>
+          <t>0-20000-0-71090</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3737,14 +3736,14 @@
         <v>32</v>
       </c>
       <c r="E33" t="n">
-        <v>22522</v>
+        <v>71090</v>
       </c>
       <c r="F33" t="n">
         <v>3</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>KEM'</t>
+          <t>CLYDE RIVER A, NU</t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
@@ -3753,20 +3752,20 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>34.65</v>
+        <v>-68.51694444444445</v>
       </c>
       <c r="L33" t="n">
-        <v>64.95</v>
+        <v>70.48583333333333</v>
       </c>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1950-01-01</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>1973-05-17</t>
+          <t>1972-11-28</t>
         </is>
       </c>
       <c r="P33" t="n">
@@ -3784,11 +3783,11 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>190</v>
+        <v>37</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>Kem</t>
+          <t>None</t>
         </is>
       </c>
       <c r="V33" t="inlineStr"/>
@@ -3827,7 +3826,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0-20000-0-25042</t>
+          <t>0-20000-0-70133</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3837,14 +3836,14 @@
         <v>33</v>
       </c>
       <c r="E34" t="n">
-        <v>25042</v>
+        <v>70133</v>
       </c>
       <c r="F34" t="n">
         <v>3</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>AJON</t>
+          <t>KOTZEBUE, RALPH WIEN</t>
         </is>
       </c>
       <c r="H34" t="inlineStr"/>
@@ -3853,20 +3852,20 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>167.9688888888889</v>
+        <v>-162.6133333333333</v>
       </c>
       <c r="L34" t="n">
-        <v>69.91861111111112</v>
+        <v>66.8863888888889</v>
       </c>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1962-03-04</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>1995-12-09</t>
+          <t>1996-07-06</t>
         </is>
       </c>
       <c r="P34" t="n">
@@ -3884,7 +3883,7 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>190</v>
+        <v>231</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
@@ -3927,7 +3926,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0-20000-0-02185</t>
+          <t>0-20000-0-20891</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -3937,14 +3936,14 @@
         <v>34</v>
       </c>
       <c r="E35" t="n">
-        <v>2057</v>
+        <v>20891</v>
       </c>
       <c r="F35" t="n">
         <v>3</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>LULEA-KALLAX (2185-0)</t>
+          <t>HATANGA</t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
@@ -3953,20 +3952,20 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>22.11444444444444</v>
+        <v>102.4663888888889</v>
       </c>
       <c r="L35" t="n">
-        <v>65.54333333333334</v>
+        <v>71.97722222222222</v>
       </c>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>1963-08-23</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>1977-06-30</t>
+          <t>1996-06-28</t>
         </is>
       </c>
       <c r="P35" t="n">
@@ -3984,11 +3983,11 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>Lulea</t>
+          <t>None</t>
         </is>
       </c>
       <c r="V35" t="inlineStr"/>
@@ -4027,7 +4026,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0-20000-0-20667</t>
+          <t>0-20000-0-24125</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -4037,14 +4036,14 @@
         <v>35</v>
       </c>
       <c r="E36" t="n">
-        <v>20667</v>
+        <v>24125</v>
       </c>
       <c r="F36" t="n">
         <v>3</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>IM. M.V. POPOVA</t>
+          <t>OLENEK (24125-0)</t>
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
@@ -4053,20 +4052,20 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>70.06638888888888</v>
+        <v>112.4333333333333</v>
       </c>
       <c r="L36" t="n">
-        <v>73.33277777777778</v>
+        <v>68.5</v>
       </c>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>1958-05-03</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>1995-02-24</t>
+          <t>1996-07-06</t>
         </is>
       </c>
       <c r="P36" t="n">
@@ -4088,7 +4087,7 @@
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Udachnyy</t>
         </is>
       </c>
       <c r="V36" t="inlineStr"/>
@@ -4127,7 +4126,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0-20000-0-21946</t>
+          <t>0-20300-0-21358</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -4137,14 +4136,14 @@
         <v>36</v>
       </c>
       <c r="E37" t="n">
-        <v>21946</v>
+        <v>21358</v>
       </c>
       <c r="F37" t="n">
         <v>3</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>CHOKURDAH</t>
+          <t>OSTROV ZOHOVA</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
@@ -4153,20 +4152,20 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>147.8833333333333</v>
+        <v>152.83</v>
       </c>
       <c r="L37" t="n">
-        <v>70.61666666666666</v>
+        <v>76.15000000000001</v>
       </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1958-05-02</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>1996-07-06</t>
+          <t>1993-11-15</t>
         </is>
       </c>
       <c r="P37" t="n">
@@ -4227,7 +4226,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0-20000-0-25399</t>
+          <t>0-20000-0-24266</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -4237,14 +4236,14 @@
         <v>37</v>
       </c>
       <c r="E38" t="n">
-        <v>25399</v>
+        <v>24266</v>
       </c>
       <c r="F38" t="n">
         <v>3</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>MYS UELEN</t>
+          <t>VERHOJANSK</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
@@ -4253,10 +4252,10 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>-169.8347222222222</v>
+        <v>133.4</v>
       </c>
       <c r="L38" t="n">
-        <v>66.16277777777778</v>
+        <v>67.56666666666666</v>
       </c>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
@@ -4266,7 +4265,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>1996-04-12</t>
+          <t>1996-07-06</t>
         </is>
       </c>
       <c r="P38" t="n">
@@ -4327,7 +4326,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0-20300-0-04340</t>
+          <t>0-20300-0-21504</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -4337,14 +4336,14 @@
         <v>38</v>
       </c>
       <c r="E39" t="n">
-        <v>4340</v>
+        <v>21504</v>
       </c>
       <c r="F39" t="n">
         <v>3</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>KAP TOBIN</t>
+          <t>OSTROV PREOBRAZHENIA</t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
@@ -4353,10 +4352,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>-21.97</v>
+        <v>112.93</v>
       </c>
       <c r="L39" t="n">
-        <v>70.42</v>
+        <v>74.67</v>
       </c>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
@@ -4366,7 +4365,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>1980-10-28</t>
+          <t>1996-07-06</t>
         </is>
       </c>
       <c r="P39" t="n">
@@ -4384,7 +4383,7 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>83</v>
+        <v>190</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
@@ -4427,7 +4426,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0-20000-0-25400</t>
+          <t>0-20000-0-25123</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -4437,14 +4436,14 @@
         <v>39</v>
       </c>
       <c r="E40" t="n">
-        <v>25400</v>
+        <v>25123</v>
       </c>
       <c r="F40" t="n">
         <v>3</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>ZYRYANKA (25400-0)</t>
+          <t>CHERSKIJ</t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
@@ -4453,15 +4452,15 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>150.9</v>
+        <v>161.2833333333333</v>
       </c>
       <c r="L40" t="n">
-        <v>65.73333333333333</v>
+        <v>68.75</v>
       </c>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>1963-04-11</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -4527,7 +4526,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0-20000-0-20107</t>
+          <t>0-20000-0-04339</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -4537,14 +4536,14 @@
         <v>40</v>
       </c>
       <c r="E41" t="n">
-        <v>20107</v>
+        <v>4339</v>
       </c>
       <c r="F41" t="n">
         <v>3</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>BARENTSBURG</t>
+          <t>ITTOQQORTOORMIIT (SCORESBYSUND)</t>
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
@@ -4553,20 +4552,20 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>14.22111111111111</v>
+        <v>-21.95111111111111</v>
       </c>
       <c r="L41" t="n">
-        <v>78.05555555555556</v>
+        <v>70.48444444444445</v>
       </c>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1980-10-25</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>1995-01-27</t>
+          <t>1996-07-06</t>
         </is>
       </c>
       <c r="P41" t="n">
@@ -4584,7 +4583,7 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>200</v>
+        <v>83</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
@@ -4627,7 +4626,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0-20300-0-23146</t>
+          <t>0-20300-0-21647</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -4637,14 +4636,14 @@
         <v>41</v>
       </c>
       <c r="E42" t="n">
-        <v>23146</v>
+        <v>21647</v>
       </c>
       <c r="F42" t="n">
         <v>3</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>MYS KAMENNY</t>
+          <t>MYS SHALAUROVA</t>
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
@@ -4653,10 +4652,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>73.59999999999999</v>
+        <v>143.533</v>
       </c>
       <c r="L42" t="n">
-        <v>68.47</v>
+        <v>73.2</v>
       </c>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
@@ -4666,7 +4665,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>1995-04-04</t>
+          <t>1995-12-29</t>
         </is>
       </c>
       <c r="P42" t="n">
@@ -4688,7 +4687,7 @@
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>Pangody</t>
+          <t>None</t>
         </is>
       </c>
       <c r="V42" t="inlineStr"/>
@@ -4727,7 +4726,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0-20000-0-71090</t>
+          <t>0-20000-0-20674</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -4737,14 +4736,14 @@
         <v>42</v>
       </c>
       <c r="E43" t="n">
-        <v>71090</v>
+        <v>20674</v>
       </c>
       <c r="F43" t="n">
         <v>3</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>CLYDE RIVER A, NU</t>
+          <t>OSTROV DIKSON</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
@@ -4753,20 +4752,20 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>-68.51694444444445</v>
+        <v>80.4063888888889</v>
       </c>
       <c r="L43" t="n">
-        <v>70.48583333333333</v>
+        <v>73.51361111111112</v>
       </c>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>1950-01-01</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>1972-11-28</t>
+          <t>1996-07-05</t>
         </is>
       </c>
       <c r="P43" t="n">
@@ -4784,7 +4783,7 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
@@ -4827,7 +4826,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0-20000-0-70133</t>
+          <t>0-20000-0-02185</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -4837,14 +4836,14 @@
         <v>43</v>
       </c>
       <c r="E44" t="n">
-        <v>70133</v>
+        <v>2185</v>
       </c>
       <c r="F44" t="n">
         <v>3</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>KOTZEBUE, RALPH WIEN</t>
+          <t>LULEA-KALLAX (2185-0)</t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
@@ -4853,15 +4852,15 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>-162.6133333333333</v>
+        <v>22.11444444444444</v>
       </c>
       <c r="L44" t="n">
-        <v>66.8863888888889</v>
+        <v>65.54333333333334</v>
       </c>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>1962-03-04</t>
+          <t>1977-08-05</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -4884,11 +4883,11 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Lulea</t>
         </is>
       </c>
       <c r="V44" t="inlineStr"/>
@@ -4927,7 +4926,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0-20000-0-20891</t>
+          <t>0-20300-0-21965</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -4937,14 +4936,14 @@
         <v>44</v>
       </c>
       <c r="E45" t="n">
-        <v>20891</v>
+        <v>21965</v>
       </c>
       <c r="F45" t="n">
         <v>3</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>HATANGA</t>
+          <t>OSTROV CHETYREKHSTOLBO</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
@@ -4953,10 +4952,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>102.4663888888889</v>
+        <v>162.4</v>
       </c>
       <c r="L45" t="n">
-        <v>71.97722222222222</v>
+        <v>70.63</v>
       </c>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
@@ -4966,7 +4965,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>1996-06-28</t>
+          <t>1996-05-27</t>
         </is>
       </c>
       <c r="P45" t="n">
@@ -5027,7 +5026,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0-20300-0-20274</t>
+          <t>0-20000-0-22271</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -5037,14 +5036,14 @@
         <v>45</v>
       </c>
       <c r="E46" t="n">
-        <v>20274</v>
+        <v>22271</v>
       </c>
       <c r="F46" t="n">
         <v>3</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>OSTROV UEDINENIA</t>
+          <t>SHOJNA</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
@@ -5053,20 +5052,20 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>82.23</v>
+        <v>44.17416666666666</v>
       </c>
       <c r="L46" t="n">
-        <v>77.5</v>
+        <v>67.87666666666667</v>
       </c>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1963-07-22</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>1996-01-03</t>
+          <t>1996-07-06</t>
         </is>
       </c>
       <c r="P46" t="n">
@@ -5088,7 +5087,7 @@
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Arkhangelsk</t>
         </is>
       </c>
       <c r="V46" t="inlineStr"/>
@@ -5127,7 +5126,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0-20000-0-20069</t>
+          <t>0-20000-0-21982</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -5137,14 +5136,14 @@
         <v>46</v>
       </c>
       <c r="E47" t="n">
-        <v>20069</v>
+        <v>21982</v>
       </c>
       <c r="F47" t="n">
         <v>3</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>OSTROV VIZE</t>
+          <t>OSTROV VRANGELJA</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
@@ -5153,10 +5152,10 @@
         <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>76.98055555555555</v>
+        <v>-178.65</v>
       </c>
       <c r="L47" t="n">
-        <v>79.49083333333333</v>
+        <v>70.98333333333333</v>
       </c>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
@@ -5166,7 +5165,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>1996-04-22</t>
+          <t>1996-07-06</t>
         </is>
       </c>
       <c r="P47" t="n">
@@ -5227,7 +5226,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0-20000-0-24266</t>
+          <t>0-20000-0-21432</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -5237,14 +5236,14 @@
         <v>47</v>
       </c>
       <c r="E48" t="n">
-        <v>24266</v>
+        <v>21432</v>
       </c>
       <c r="F48" t="n">
         <v>3</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>VERHOJANSK</t>
+          <t>OSTROV KOTEL'NYJ</t>
         </is>
       </c>
       <c r="H48" t="inlineStr"/>
@@ -5253,10 +5252,10 @@
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>133.4</v>
+        <v>137.8666666666667</v>
       </c>
       <c r="L48" t="n">
-        <v>67.56666666666666</v>
+        <v>76</v>
       </c>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
@@ -5327,7 +5326,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0-20001-0-20744</t>
+          <t>0-20000-0-24343</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -5337,14 +5336,14 @@
         <v>48</v>
       </c>
       <c r="E49" t="n">
-        <v>20744</v>
+        <v>24343</v>
       </c>
       <c r="F49" t="n">
         <v>3</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>MALYE KARMAKULY (20744-1)</t>
+          <t>ZHIGANSK</t>
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
@@ -5353,10 +5352,10 @@
         <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>52.7</v>
+        <v>123.4</v>
       </c>
       <c r="L49" t="n">
-        <v>72.36666666666666</v>
+        <v>66.76666666666667</v>
       </c>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
@@ -5388,7 +5387,7 @@
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>Naryan-Mar</t>
+          <t>None</t>
         </is>
       </c>
       <c r="V49" t="inlineStr"/>
@@ -5427,7 +5426,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0-20300-0-21504</t>
+          <t>0-20000-0-20292</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -5437,14 +5436,14 @@
         <v>49</v>
       </c>
       <c r="E50" t="n">
-        <v>21504</v>
+        <v>20292</v>
       </c>
       <c r="F50" t="n">
         <v>3</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>OSTROV PREOBRAZHENIA</t>
+          <t>GMO IM.E.K. FEDOROVA</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
@@ -5453,10 +5452,10 @@
         <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>112.93</v>
+        <v>104.2919444444444</v>
       </c>
       <c r="L50" t="n">
-        <v>74.67</v>
+        <v>77.71305555555556</v>
       </c>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
@@ -5466,7 +5465,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>1996-07-06</t>
+          <t>1996-05-11</t>
         </is>
       </c>
       <c r="P50" t="n">
@@ -5527,7 +5526,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0-20000-0-22217</t>
+          <t>0-20000-0-21824</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -5537,14 +5536,14 @@
         <v>50</v>
       </c>
       <c r="E51" t="n">
-        <v>22217</v>
+        <v>21824</v>
       </c>
       <c r="F51" t="n">
         <v>3</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>KANDALAKSHA</t>
+          <t>TIKSI</t>
         </is>
       </c>
       <c r="H51" t="inlineStr"/>
@@ -5553,10 +5552,10 @@
         <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>32.35416666666667</v>
+        <v>128.9166666666667</v>
       </c>
       <c r="L51" t="n">
-        <v>67.16916666666667</v>
+        <v>71.58333333333333</v>
       </c>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
@@ -5566,7 +5565,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>1996-06-25</t>
+          <t>1996-07-06</t>
         </is>
       </c>
       <c r="P51" t="n">
@@ -5588,7 +5587,7 @@
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>Kandalaksha</t>
+          <t>None</t>
         </is>
       </c>
       <c r="V51" t="inlineStr"/>
@@ -5627,7 +5626,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0-20000-0-25123</t>
+          <t>0-20000-0-04220</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -5637,14 +5636,14 @@
         <v>51</v>
       </c>
       <c r="E52" t="n">
-        <v>25123</v>
+        <v>4220</v>
       </c>
       <c r="F52" t="n">
         <v>3</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>CHERSKIJ</t>
+          <t>AASIAAT (EGEDESMINDE)</t>
         </is>
       </c>
       <c r="H52" t="inlineStr"/>
@@ -5653,10 +5652,10 @@
         <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>161.2833333333333</v>
+        <v>-52.85166666666667</v>
       </c>
       <c r="L52" t="n">
-        <v>68.75</v>
+        <v>68.70805555555556</v>
       </c>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
@@ -5684,7 +5683,7 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>190</v>
+        <v>83</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
@@ -5727,7 +5726,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0-20000-0-24125</t>
+          <t>0-20300-0-25173</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -5737,14 +5736,14 @@
         <v>52</v>
       </c>
       <c r="E53" t="n">
-        <v>24125</v>
+        <v>25173</v>
       </c>
       <c r="F53" t="n">
         <v>3</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>OLENEK (24125-0)</t>
+          <t>MYS SHMIDTA</t>
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
@@ -5753,10 +5752,10 @@
         <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>112.4333333333333</v>
+        <v>-179.48</v>
       </c>
       <c r="L53" t="n">
-        <v>68.5</v>
+        <v>68.92</v>
       </c>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
@@ -5788,7 +5787,7 @@
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>Udachnyy</t>
+          <t>Anadyr</t>
         </is>
       </c>
       <c r="V53" t="inlineStr"/>
@@ -5827,7 +5826,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0-20000-0-20046</t>
+          <t>0-20000-0-04320</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -5837,14 +5836,14 @@
         <v>53</v>
       </c>
       <c r="E54" t="n">
-        <v>20046</v>
+        <v>4320</v>
       </c>
       <c r="F54" t="n">
         <v>3</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>POLARGMO IM. E.T. KRENKELJA</t>
+          <t>DANMARKSHAVN</t>
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
@@ -5853,15 +5852,15 @@
         <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>58.05888888888889</v>
+        <v>-18.66805555555556</v>
       </c>
       <c r="L54" t="n">
-        <v>80.62638888888888</v>
+        <v>76.76944444444445</v>
       </c>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1958-05-02</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -5884,7 +5883,7 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>190</v>
+        <v>83</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
@@ -5927,7 +5926,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0-20000-0-21982</t>
+          <t>0-20001-0-01028</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -5937,14 +5936,14 @@
         <v>54</v>
       </c>
       <c r="E55" t="n">
-        <v>21982</v>
+        <v>1028</v>
       </c>
       <c r="F55" t="n">
         <v>3</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>OSTROV VRANGELJA</t>
+          <t>BJORNOYA (1028-1)</t>
         </is>
       </c>
       <c r="H55" t="inlineStr"/>
@@ -5953,15 +5952,15 @@
         <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>-178.65</v>
+        <v>19.00111111111111</v>
       </c>
       <c r="L55" t="n">
-        <v>70.98333333333333</v>
+        <v>74.50388888888889</v>
       </c>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1958-05-02</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -5984,11 +5983,11 @@
         </is>
       </c>
       <c r="T55" t="n">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Alta</t>
         </is>
       </c>
       <c r="V55" t="inlineStr"/>
@@ -6027,7 +6026,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0-20000-0-20674</t>
+          <t>0-20000-0-71074</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -6037,14 +6036,14 @@
         <v>55</v>
       </c>
       <c r="E56" t="n">
-        <v>20674</v>
+        <v>71074</v>
       </c>
       <c r="F56" t="n">
         <v>3</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>OSTROV DIKSON</t>
+          <t>ISACHSEN (AUT), NU</t>
         </is>
       </c>
       <c r="H56" t="inlineStr"/>
@@ -6053,20 +6052,20 @@
         <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>80.4063888888889</v>
+        <v>-103.5544444444444</v>
       </c>
       <c r="L56" t="n">
-        <v>73.51361111111112</v>
+        <v>78.79222222222222</v>
       </c>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1948-08-18</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>1996-07-05</t>
+          <t>1978-06-19</t>
         </is>
       </c>
       <c r="P56" t="n">
@@ -6084,7 +6083,7 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>190</v>
+        <v>37</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
@@ -6127,7 +6126,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0-20000-0-22271</t>
+          <t>0-20000-0-04360</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -6137,14 +6136,14 @@
         <v>56</v>
       </c>
       <c r="E57" t="n">
-        <v>22271</v>
+        <v>4360</v>
       </c>
       <c r="F57" t="n">
         <v>3</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>SHOJNA</t>
+          <t>TASIILAQ (AMMASSALIK)</t>
         </is>
       </c>
       <c r="H57" t="inlineStr"/>
@@ -6153,15 +6152,15 @@
         <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>44.17416666666666</v>
+        <v>-37.63666666666666</v>
       </c>
       <c r="L57" t="n">
-        <v>67.87666666666667</v>
+        <v>65.6111111111111</v>
       </c>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t>1963-07-22</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -6184,11 +6183,11 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>190</v>
+        <v>83</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>Arkhangelsk</t>
+          <t>None</t>
         </is>
       </c>
       <c r="V57" t="inlineStr"/>
@@ -6227,7 +6226,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0-20000-0-21432</t>
+          <t>0-20300-0-71051</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -6237,14 +6236,14 @@
         <v>57</v>
       </c>
       <c r="E58" t="n">
-        <v>21432</v>
+        <v>71051</v>
       </c>
       <c r="F58" t="n">
         <v>3</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>OSTROV KOTEL'NYJ</t>
+          <t>SACHS HARBOUR</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
@@ -6253,20 +6252,20 @@
         <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>137.8666666666667</v>
+        <v>-125.27</v>
       </c>
       <c r="L58" t="n">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1955-11-01</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>1996-07-06</t>
+          <t>1992-03-21</t>
         </is>
       </c>
       <c r="P58" t="n">
@@ -6284,7 +6283,7 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>190</v>
+        <v>37</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
@@ -6327,7 +6326,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0-20300-0-21647</t>
+          <t>0-20001-0-71925</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -6337,14 +6336,14 @@
         <v>58</v>
       </c>
       <c r="E59" t="n">
-        <v>21647</v>
+        <v>71925</v>
       </c>
       <c r="F59" t="n">
         <v>3</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>MYS SHALAUROVA</t>
+          <t>CAMBRIDGE BAY UA, NU</t>
         </is>
       </c>
       <c r="H59" t="inlineStr"/>
@@ -6353,20 +6352,20 @@
         <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>143.533</v>
+        <v>-105.0666666666667</v>
       </c>
       <c r="L59" t="n">
-        <v>73.2</v>
+        <v>69.13333333333334</v>
       </c>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1962-03-04</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>1995-12-29</t>
+          <t>1996-07-06</t>
         </is>
       </c>
       <c r="P59" t="n">
@@ -6384,7 +6383,7 @@
         </is>
       </c>
       <c r="T59" t="n">
-        <v>190</v>
+        <v>37</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
@@ -6427,7 +6426,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0-20000-0-24343</t>
+          <t>0-20000-0-70086</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -6437,14 +6436,14 @@
         <v>59</v>
       </c>
       <c r="E60" t="n">
-        <v>24343</v>
+        <v>70086</v>
       </c>
       <c r="F60" t="n">
         <v>3</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>ZHIGANSK</t>
+          <t>BARTER ISLAND</t>
         </is>
       </c>
       <c r="H60" t="inlineStr"/>
@@ -6453,20 +6452,20 @@
         <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>123.4</v>
+        <v>-143.6333333333333</v>
       </c>
       <c r="L60" t="n">
-        <v>66.76666666666667</v>
+        <v>70.13333333333334</v>
       </c>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
-          <t>1958-05-02</t>
+          <t>1953-04-04</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>1996-07-06</t>
+          <t>1989-06-21</t>
         </is>
       </c>
       <c r="P60" t="n">
@@ -6484,7 +6483,7 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>190</v>
+        <v>231</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
@@ -6527,7 +6526,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0-20300-0-21965</t>
+          <t>0-20001-0-71957</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -6537,14 +6536,14 @@
         <v>60</v>
       </c>
       <c r="E61" t="n">
-        <v>21965</v>
+        <v>71957</v>
       </c>
       <c r="F61" t="n">
         <v>3</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>OSTROV CHETYREKHSTOLBO</t>
+          <t>INUVIK UA, NWT</t>
         </is>
       </c>
       <c r="H61" t="inlineStr"/>
@@ -6553,20 +6552,20 @@
         <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>162.4</v>
+        <v>-133.5166666666667</v>
       </c>
       <c r="L61" t="n">
-        <v>70.63</v>
+        <v>68.31666666666666</v>
       </c>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1960-09-12</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>1996-05-27</t>
+          <t>1996-07-06</t>
         </is>
       </c>
       <c r="P61" t="n">
@@ -6584,7 +6583,7 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>190</v>
+        <v>37</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
@@ -6627,7 +6626,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0-20000-0-20292</t>
+          <t>0-20001-0-71081</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -6637,14 +6636,14 @@
         <v>61</v>
       </c>
       <c r="E62" t="n">
-        <v>20292</v>
+        <v>71081</v>
       </c>
       <c r="F62" t="n">
         <v>3</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>GMO IM.E.K. FEDOROVA</t>
+          <t>HALL BEACH UA, NU</t>
         </is>
       </c>
       <c r="H62" t="inlineStr"/>
@@ -6653,20 +6652,20 @@
         <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>104.2919444444444</v>
+        <v>-81.21666666666667</v>
       </c>
       <c r="L62" t="n">
-        <v>77.71305555555556</v>
+        <v>68.76666666666667</v>
       </c>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1957-08-01</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>1996-05-11</t>
+          <t>1996-07-06</t>
         </is>
       </c>
       <c r="P62" t="n">
@@ -6684,7 +6683,7 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>190</v>
+        <v>37</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
@@ -6727,7 +6726,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0-20000-0-23330</t>
+          <t>0-20000-0-04202</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -6737,14 +6736,14 @@
         <v>62</v>
       </c>
       <c r="E63" t="n">
-        <v>23330</v>
+        <v>4202</v>
       </c>
       <c r="F63" t="n">
         <v>3</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>SALEHARD</t>
+          <t>PITUFFIK (THULE AIR BASE)</t>
         </is>
       </c>
       <c r="H63" t="inlineStr"/>
@@ -6753,15 +6752,15 @@
         <v>0</v>
       </c>
       <c r="K63" t="n">
-        <v>66.67444444444445</v>
+        <v>-68.75</v>
       </c>
       <c r="L63" t="n">
-        <v>66.53194444444445</v>
+        <v>76.53333333333333</v>
       </c>
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1952-08-01</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -6784,11 +6783,11 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>190</v>
+        <v>83</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>Salekhard</t>
+          <t>None</t>
         </is>
       </c>
       <c r="V63" t="inlineStr"/>
@@ -6827,7 +6826,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0-20000-0-23022</t>
+          <t>0-20000-0-70026</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -6837,14 +6836,14 @@
         <v>63</v>
       </c>
       <c r="E64" t="n">
-        <v>23022</v>
+        <v>70026</v>
       </c>
       <c r="F64" t="n">
         <v>3</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>AMDERMA</t>
+          <t>BARROW/W. POST W. ROGERS</t>
         </is>
       </c>
       <c r="H64" t="inlineStr"/>
@@ -6853,15 +6852,15 @@
         <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>61.65777777777777</v>
+        <v>-156.7833333333333</v>
       </c>
       <c r="L64" t="n">
-        <v>69.78333333333333</v>
+        <v>71.28888888888889</v>
       </c>
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1948-01-01</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -6884,11 +6883,11 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>190</v>
+        <v>231</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>Severnyy</t>
+          <t>None</t>
         </is>
       </c>
       <c r="V64" t="inlineStr"/>
@@ -6927,7 +6926,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0-20000-0-23205</t>
+          <t>0-20001-0-71082</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -6937,14 +6936,14 @@
         <v>64</v>
       </c>
       <c r="E65" t="n">
-        <v>23205</v>
+        <v>71082</v>
       </c>
       <c r="F65" t="n">
         <v>3</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>NAR'JAN-MAR</t>
+          <t>ALERT UA, NU</t>
         </is>
       </c>
       <c r="H65" t="inlineStr"/>
@@ -6953,15 +6952,15 @@
         <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>53.0175</v>
+        <v>-62.33333333333334</v>
       </c>
       <c r="L65" t="n">
-        <v>67.625</v>
+        <v>82.5</v>
       </c>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1950-09-10</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -6984,11 +6983,11 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>190</v>
+        <v>37</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>Naryan-Mar</t>
+          <t>None</t>
         </is>
       </c>
       <c r="V65" t="inlineStr"/>
@@ -7027,7 +7026,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0-20000-0-21824</t>
+          <t>0-20001-0-71043</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -7037,14 +7036,14 @@
         <v>65</v>
       </c>
       <c r="E66" t="n">
-        <v>21824</v>
+        <v>71043</v>
       </c>
       <c r="F66" t="n">
         <v>3</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>TIKSI</t>
+          <t>NORMAN WELLS UA, NWT</t>
         </is>
       </c>
       <c r="H66" t="inlineStr"/>
@@ -7053,15 +7052,15 @@
         <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>128.9166666666667</v>
+        <v>-126.75</v>
       </c>
       <c r="L66" t="n">
-        <v>71.58333333333333</v>
+        <v>65.28333333333333</v>
       </c>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1955-07-01</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -7084,7 +7083,7 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>190</v>
+        <v>37</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
@@ -7127,7 +7126,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0-20000-0-04220</t>
+          <t>0-20001-0-71917</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -7137,14 +7136,14 @@
         <v>66</v>
       </c>
       <c r="E67" t="n">
-        <v>4220</v>
+        <v>71917</v>
       </c>
       <c r="F67" t="n">
         <v>3</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>AASIAAT (EGEDESMINDE)</t>
+          <t>EUREKA UA, NU</t>
         </is>
       </c>
       <c r="H67" t="inlineStr"/>
@@ -7153,15 +7152,15 @@
         <v>0</v>
       </c>
       <c r="K67" t="n">
-        <v>-52.85166666666667</v>
+        <v>-85.93333333333334</v>
       </c>
       <c r="L67" t="n">
-        <v>68.70805555555556</v>
+        <v>79.98333333333333</v>
       </c>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1948-01-01</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -7184,7 +7183,7 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
@@ -7227,7 +7226,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0-20000-0-04360</t>
+          <t>0-20300-0-71072</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -7237,14 +7236,14 @@
         <v>67</v>
       </c>
       <c r="E68" t="n">
-        <v>4360</v>
+        <v>71072</v>
       </c>
       <c r="F68" t="n">
         <v>3</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>TASIILAQ (AMMASSALIK)</t>
+          <t>MOULD BAY</t>
         </is>
       </c>
       <c r="H68" t="inlineStr"/>
@@ -7253,15 +7252,15 @@
         <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>-37.63666666666666</v>
+        <v>-119.35</v>
       </c>
       <c r="L68" t="n">
-        <v>65.6111111111111</v>
+        <v>76.25</v>
       </c>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1948-06-06</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -7284,7 +7283,7 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
@@ -7327,7 +7326,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0-20000-0-01152</t>
+          <t>0-20001-0-71924</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -7337,14 +7336,14 @@
         <v>68</v>
       </c>
       <c r="E69" t="n">
-        <v>1152</v>
+        <v>71924</v>
       </c>
       <c r="F69" t="n">
         <v>3</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>BODO VI</t>
+          <t>RESOLUTE UA, NU</t>
         </is>
       </c>
       <c r="H69" t="inlineStr"/>
@@ -7353,15 +7352,15 @@
         <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>14.35861111111111</v>
+        <v>-94.96805555555557</v>
       </c>
       <c r="L69" t="n">
-        <v>67.26694444444445</v>
+        <v>74.70416666666667</v>
       </c>
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr">
         <is>
-          <t>1958-05-02</t>
+          <t>1948-01-01</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -7384,11 +7383,11 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>166</v>
+        <v>37</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>Bodo</t>
+          <t>None</t>
         </is>
       </c>
       <c r="V69" t="inlineStr"/>
@@ -7427,7 +7426,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0-20000-0-23415</t>
+          <t>0-20000-0-23274</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -7437,14 +7436,14 @@
         <v>69</v>
       </c>
       <c r="E70" t="n">
-        <v>23418</v>
+        <v>23274</v>
       </c>
       <c r="F70" t="n">
         <v>3</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>PECHORA (23415-0)</t>
+          <t>IGARKA</t>
         </is>
       </c>
       <c r="H70" t="inlineStr"/>
@@ -7453,10 +7452,10 @@
         <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>57.1</v>
+        <v>86.56666666666666</v>
       </c>
       <c r="L70" t="n">
-        <v>65.11666666666666</v>
+        <v>67.46666666666667</v>
       </c>
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr">
@@ -7466,7 +7465,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>1996-07-06</t>
+          <t>1992-02-15</t>
         </is>
       </c>
       <c r="P70" t="n">
@@ -7488,7 +7487,7 @@
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>Pechora</t>
+          <t>Dudinka</t>
         </is>
       </c>
       <c r="V70" t="inlineStr"/>
@@ -7527,7 +7526,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0-20001-0-01028</t>
+          <t>0-20000-0-02185</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -7537,14 +7536,14 @@
         <v>70</v>
       </c>
       <c r="E71" t="n">
-        <v>1028</v>
+        <v>2057</v>
       </c>
       <c r="F71" t="n">
         <v>3</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>BJORNOYA (1028-1)</t>
+          <t>LULEA-KALLAX (2185-0)</t>
         </is>
       </c>
       <c r="H71" t="inlineStr"/>
@@ -7553,20 +7552,20 @@
         <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>19.00111111111111</v>
+        <v>22.11444444444444</v>
       </c>
       <c r="L71" t="n">
-        <v>74.50388888888889</v>
+        <v>65.54333333333334</v>
       </c>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr">
         <is>
-          <t>1958-05-02</t>
+          <t>1963-08-23</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>1996-07-06</t>
+          <t>1977-06-30</t>
         </is>
       </c>
       <c r="P71" t="n">
@@ -7584,11 +7583,11 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>Alta</t>
+          <t>Lulea</t>
         </is>
       </c>
       <c r="V71" t="inlineStr"/>
@@ -7627,7 +7626,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0-20300-0-71051</t>
+          <t>0-20000-0-20667</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -7637,14 +7636,14 @@
         <v>71</v>
       </c>
       <c r="E72" t="n">
-        <v>71051</v>
+        <v>20667</v>
       </c>
       <c r="F72" t="n">
         <v>3</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>SACHS HARBOUR</t>
+          <t>IM. M.V. POPOVA</t>
         </is>
       </c>
       <c r="H72" t="inlineStr"/>
@@ -7653,20 +7652,20 @@
         <v>0</v>
       </c>
       <c r="K72" t="n">
-        <v>-125.27</v>
+        <v>70.06638888888888</v>
       </c>
       <c r="L72" t="n">
-        <v>72</v>
+        <v>73.33277777777778</v>
       </c>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr">
         <is>
-          <t>1955-11-01</t>
+          <t>1958-05-03</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>1992-03-21</t>
+          <t>1995-02-24</t>
         </is>
       </c>
       <c r="P72" t="n">
@@ -7684,7 +7683,7 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
@@ -7727,7 +7726,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0-20000-0-22113</t>
+          <t>0-20000-0-25400</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -7737,14 +7736,14 @@
         <v>72</v>
       </c>
       <c r="E73" t="n">
-        <v>22113</v>
+        <v>25400</v>
       </c>
       <c r="F73" t="n">
         <v>3</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>MURMANSK (22113-0)</t>
+          <t>ZYRYANKA (25400-0)</t>
         </is>
       </c>
       <c r="H73" t="inlineStr"/>
@@ -7753,15 +7752,15 @@
         <v>0</v>
       </c>
       <c r="K73" t="n">
-        <v>33.04277777777778</v>
+        <v>150.9</v>
       </c>
       <c r="L73" t="n">
-        <v>68.95583333333333</v>
+        <v>65.73333333333333</v>
       </c>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1963-04-11</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -7788,7 +7787,7 @@
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>Murmansk</t>
+          <t>None</t>
         </is>
       </c>
       <c r="V73" t="inlineStr"/>
@@ -7827,7 +7826,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0-20000-0-04320</t>
+          <t>0-20000-0-20107</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -7837,14 +7836,14 @@
         <v>73</v>
       </c>
       <c r="E74" t="n">
-        <v>4320</v>
+        <v>20107</v>
       </c>
       <c r="F74" t="n">
         <v>3</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>DANMARKSHAVN</t>
+          <t>BARENTSBURG</t>
         </is>
       </c>
       <c r="H74" t="inlineStr"/>
@@ -7853,20 +7852,20 @@
         <v>0</v>
       </c>
       <c r="K74" t="n">
-        <v>-18.66805555555556</v>
+        <v>14.22111111111111</v>
       </c>
       <c r="L74" t="n">
-        <v>76.76944444444445</v>
+        <v>78.05555555555556</v>
       </c>
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr">
         <is>
-          <t>1958-05-02</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>1996-07-06</t>
+          <t>1995-01-27</t>
         </is>
       </c>
       <c r="P74" t="n">
@@ -7884,7 +7883,7 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>83</v>
+        <v>200</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
@@ -7927,7 +7926,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0-20000-0-23472</t>
+          <t>0-20300-0-23146</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -7937,14 +7936,14 @@
         <v>74</v>
       </c>
       <c r="E75" t="n">
-        <v>23472</v>
+        <v>23146</v>
       </c>
       <c r="F75" t="n">
         <v>3</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>TURUHANSK</t>
+          <t>MYS KAMENNY</t>
         </is>
       </c>
       <c r="H75" t="inlineStr"/>
@@ -7953,10 +7952,10 @@
         <v>0</v>
       </c>
       <c r="K75" t="n">
-        <v>87.98888888888889</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="L75" t="n">
-        <v>65.79444444444444</v>
+        <v>68.47</v>
       </c>
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr">
@@ -7966,7 +7965,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>1996-07-06</t>
+          <t>1995-04-04</t>
         </is>
       </c>
       <c r="P75" t="n">
@@ -7988,7 +7987,7 @@
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>Norilsk</t>
+          <t>Pangody</t>
         </is>
       </c>
       <c r="V75" t="inlineStr"/>
@@ -8027,7 +8026,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0-20300-0-25173</t>
+          <t>0-20001-0-20744</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -8037,14 +8036,14 @@
         <v>75</v>
       </c>
       <c r="E76" t="n">
-        <v>25173</v>
+        <v>20744</v>
       </c>
       <c r="F76" t="n">
         <v>3</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>MYS SHMIDTA</t>
+          <t>MALYE KARMAKULY (20744-1)</t>
         </is>
       </c>
       <c r="H76" t="inlineStr"/>
@@ -8053,15 +8052,15 @@
         <v>0</v>
       </c>
       <c r="K76" t="n">
-        <v>-179.48</v>
+        <v>52.7</v>
       </c>
       <c r="L76" t="n">
-        <v>68.92</v>
+        <v>72.36666666666666</v>
       </c>
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1958-05-02</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -8088,7 +8087,7 @@
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>Anadyr</t>
+          <t>Naryan-Mar</t>
         </is>
       </c>
       <c r="V76" t="inlineStr"/>
@@ -8127,7 +8126,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0-20001-0-71957</t>
+          <t>0-20300-0-20274</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -8137,14 +8136,14 @@
         <v>76</v>
       </c>
       <c r="E77" t="n">
-        <v>71957</v>
+        <v>20274</v>
       </c>
       <c r="F77" t="n">
         <v>3</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>INUVIK UA, NWT</t>
+          <t>OSTROV UEDINENIA</t>
         </is>
       </c>
       <c r="H77" t="inlineStr"/>
@@ -8153,20 +8152,20 @@
         <v>0</v>
       </c>
       <c r="K77" t="n">
-        <v>-133.5166666666667</v>
+        <v>82.23</v>
       </c>
       <c r="L77" t="n">
-        <v>68.31666666666666</v>
+        <v>77.5</v>
       </c>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr">
         <is>
-          <t>1960-09-12</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>1996-07-06</t>
+          <t>1996-01-03</t>
         </is>
       </c>
       <c r="P77" t="n">
@@ -8184,7 +8183,7 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
@@ -8227,7 +8226,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0-20000-0-70086</t>
+          <t>0-20000-0-20069</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -8237,14 +8236,14 @@
         <v>77</v>
       </c>
       <c r="E78" t="n">
-        <v>70086</v>
+        <v>20069</v>
       </c>
       <c r="F78" t="n">
         <v>3</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>BARTER ISLAND</t>
+          <t>OSTROV VIZE</t>
         </is>
       </c>
       <c r="H78" t="inlineStr"/>
@@ -8253,20 +8252,20 @@
         <v>0</v>
       </c>
       <c r="K78" t="n">
-        <v>-143.6333333333333</v>
+        <v>76.98055555555555</v>
       </c>
       <c r="L78" t="n">
-        <v>70.13333333333334</v>
+        <v>79.49083333333333</v>
       </c>
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr">
         <is>
-          <t>1953-04-04</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>1989-06-21</t>
+          <t>1996-04-22</t>
         </is>
       </c>
       <c r="P78" t="n">
@@ -8284,7 +8283,7 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>231</v>
+        <v>190</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
@@ -8327,7 +8326,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0-20001-0-71081</t>
+          <t>0-20000-0-22217</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -8337,14 +8336,14 @@
         <v>78</v>
       </c>
       <c r="E79" t="n">
-        <v>71081</v>
+        <v>22217</v>
       </c>
       <c r="F79" t="n">
         <v>3</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>HALL BEACH UA, NU</t>
+          <t>KANDALAKSHA</t>
         </is>
       </c>
       <c r="H79" t="inlineStr"/>
@@ -8353,20 +8352,20 @@
         <v>0</v>
       </c>
       <c r="K79" t="n">
-        <v>-81.21666666666667</v>
+        <v>32.35416666666667</v>
       </c>
       <c r="L79" t="n">
-        <v>68.76666666666667</v>
+        <v>67.16916666666667</v>
       </c>
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr">
         <is>
-          <t>1957-08-01</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>1996-07-06</t>
+          <t>1996-06-25</t>
         </is>
       </c>
       <c r="P79" t="n">
@@ -8384,11 +8383,11 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Kandalaksha</t>
         </is>
       </c>
       <c r="V79" t="inlineStr"/>
@@ -8427,7 +8426,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0-20001-0-71925</t>
+          <t>0-20000-0-20046</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -8437,14 +8436,14 @@
         <v>79</v>
       </c>
       <c r="E80" t="n">
-        <v>71925</v>
+        <v>20046</v>
       </c>
       <c r="F80" t="n">
         <v>3</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>CAMBRIDGE BAY UA, NU</t>
+          <t>POLARGMO IM. E.T. KRENKELJA</t>
         </is>
       </c>
       <c r="H80" t="inlineStr"/>
@@ -8453,15 +8452,15 @@
         <v>0</v>
       </c>
       <c r="K80" t="n">
-        <v>-105.0666666666667</v>
+        <v>58.05888888888889</v>
       </c>
       <c r="L80" t="n">
-        <v>69.13333333333334</v>
+        <v>80.62638888888888</v>
       </c>
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr">
         <is>
-          <t>1962-03-04</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -8484,7 +8483,7 @@
         </is>
       </c>
       <c r="T80" t="n">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
@@ -8527,7 +8526,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0-20000-0-02836</t>
+          <t>0-20000-0-23022</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -8537,14 +8536,14 @@
         <v>80</v>
       </c>
       <c r="E81" t="n">
-        <v>2836</v>
+        <v>23022</v>
       </c>
       <c r="F81" t="n">
         <v>3</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>SODANKYLA ARCTIC RESEARCH CENTRE</t>
+          <t>AMDERMA</t>
         </is>
       </c>
       <c r="H81" t="inlineStr"/>
@@ -8553,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="K81" t="n">
-        <v>26.62888888888889</v>
+        <v>61.65777777777777</v>
       </c>
       <c r="L81" t="n">
-        <v>67.36666666666666</v>
+        <v>69.78333333333333</v>
       </c>
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr">
@@ -8584,11 +8583,11 @@
         </is>
       </c>
       <c r="T81" t="n">
-        <v>69</v>
+        <v>190</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>Rovaniemi</t>
+          <t>Severnyy</t>
         </is>
       </c>
       <c r="V81" t="inlineStr"/>
@@ -8627,7 +8626,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>0-20000-0-04202</t>
+          <t>0-20000-0-23330</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -8637,14 +8636,14 @@
         <v>81</v>
       </c>
       <c r="E82" t="n">
-        <v>4202</v>
+        <v>23330</v>
       </c>
       <c r="F82" t="n">
         <v>3</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>PITUFFIK (THULE AIR BASE)</t>
+          <t>SALEHARD</t>
         </is>
       </c>
       <c r="H82" t="inlineStr"/>
@@ -8653,15 +8652,15 @@
         <v>0</v>
       </c>
       <c r="K82" t="n">
-        <v>-68.75</v>
+        <v>66.67444444444445</v>
       </c>
       <c r="L82" t="n">
-        <v>76.53333333333333</v>
+        <v>66.53194444444445</v>
       </c>
       <c r="M82" t="inlineStr"/>
       <c r="N82" t="inlineStr">
         <is>
-          <t>1952-08-01</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -8684,11 +8683,11 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>83</v>
+        <v>190</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Salekhard</t>
         </is>
       </c>
       <c r="V82" t="inlineStr"/>
@@ -8727,7 +8726,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>0-20000-0-70026</t>
+          <t>0-20000-0-01152</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -8737,14 +8736,14 @@
         <v>82</v>
       </c>
       <c r="E83" t="n">
-        <v>70026</v>
+        <v>1152</v>
       </c>
       <c r="F83" t="n">
         <v>3</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>BARROW/W. POST W. ROGERS</t>
+          <t>BODO VI</t>
         </is>
       </c>
       <c r="H83" t="inlineStr"/>
@@ -8753,15 +8752,15 @@
         <v>0</v>
       </c>
       <c r="K83" t="n">
-        <v>-156.7833333333333</v>
+        <v>14.35861111111111</v>
       </c>
       <c r="L83" t="n">
-        <v>71.28888888888889</v>
+        <v>67.26694444444445</v>
       </c>
       <c r="M83" t="inlineStr"/>
       <c r="N83" t="inlineStr">
         <is>
-          <t>1948-01-01</t>
+          <t>1958-05-02</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -8784,11 +8783,11 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>231</v>
+        <v>166</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Bodo</t>
         </is>
       </c>
       <c r="V83" t="inlineStr"/>
@@ -8827,7 +8826,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>0-20001-0-71082</t>
+          <t>0-20000-0-23415</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -8837,14 +8836,14 @@
         <v>83</v>
       </c>
       <c r="E84" t="n">
-        <v>71082</v>
+        <v>23418</v>
       </c>
       <c r="F84" t="n">
         <v>3</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>ALERT UA, NU</t>
+          <t>PECHORA (23415-0)</t>
         </is>
       </c>
       <c r="H84" t="inlineStr"/>
@@ -8853,15 +8852,15 @@
         <v>0</v>
       </c>
       <c r="K84" t="n">
-        <v>-62.33333333333334</v>
+        <v>57.1</v>
       </c>
       <c r="L84" t="n">
-        <v>82.5</v>
+        <v>65.11666666666666</v>
       </c>
       <c r="M84" t="inlineStr"/>
       <c r="N84" t="inlineStr">
         <is>
-          <t>1950-09-10</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -8884,11 +8883,11 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Pechora</t>
         </is>
       </c>
       <c r="V84" t="inlineStr"/>
@@ -8927,7 +8926,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>0-20001-0-71043</t>
+          <t>0-20000-0-23205</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -8937,14 +8936,14 @@
         <v>84</v>
       </c>
       <c r="E85" t="n">
-        <v>71043</v>
+        <v>23205</v>
       </c>
       <c r="F85" t="n">
         <v>3</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>NORMAN WELLS UA, NWT</t>
+          <t>NAR'JAN-MAR</t>
         </is>
       </c>
       <c r="H85" t="inlineStr"/>
@@ -8953,15 +8952,15 @@
         <v>0</v>
       </c>
       <c r="K85" t="n">
-        <v>-126.75</v>
+        <v>53.0175</v>
       </c>
       <c r="L85" t="n">
-        <v>65.28333333333333</v>
+        <v>67.625</v>
       </c>
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr">
         <is>
-          <t>1955-07-01</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -8984,11 +8983,11 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Naryan-Mar</t>
         </is>
       </c>
       <c r="V85" t="inlineStr"/>
@@ -9027,7 +9026,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>0-20001-0-71917</t>
+          <t>0-20000-0-22113</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -9037,14 +9036,14 @@
         <v>85</v>
       </c>
       <c r="E86" t="n">
-        <v>71917</v>
+        <v>22113</v>
       </c>
       <c r="F86" t="n">
         <v>3</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>EUREKA UA, NU</t>
+          <t>MURMANSK (22113-0)</t>
         </is>
       </c>
       <c r="H86" t="inlineStr"/>
@@ -9053,15 +9052,15 @@
         <v>0</v>
       </c>
       <c r="K86" t="n">
-        <v>-85.93333333333334</v>
+        <v>33.04277777777778</v>
       </c>
       <c r="L86" t="n">
-        <v>79.98333333333333</v>
+        <v>68.95583333333333</v>
       </c>
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr">
         <is>
-          <t>1948-01-01</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -9084,11 +9083,11 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Murmansk</t>
         </is>
       </c>
       <c r="V86" t="inlineStr"/>
@@ -9127,7 +9126,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>0-20300-0-71072</t>
+          <t>0-20000-0-23472</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -9137,14 +9136,14 @@
         <v>86</v>
       </c>
       <c r="E87" t="n">
-        <v>71072</v>
+        <v>23472</v>
       </c>
       <c r="F87" t="n">
         <v>3</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>MOULD BAY</t>
+          <t>TURUHANSK</t>
         </is>
       </c>
       <c r="H87" t="inlineStr"/>
@@ -9153,15 +9152,15 @@
         <v>0</v>
       </c>
       <c r="K87" t="n">
-        <v>-119.35</v>
+        <v>87.98888888888889</v>
       </c>
       <c r="L87" t="n">
-        <v>76.25</v>
+        <v>65.79444444444444</v>
       </c>
       <c r="M87" t="inlineStr"/>
       <c r="N87" t="inlineStr">
         <is>
-          <t>1948-06-06</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -9184,11 +9183,11 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Norilsk</t>
         </is>
       </c>
       <c r="V87" t="inlineStr"/>
@@ -9227,7 +9226,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>0-20001-0-71924</t>
+          <t>0-20000-0-02836</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -9237,14 +9236,14 @@
         <v>87</v>
       </c>
       <c r="E88" t="n">
-        <v>71924</v>
+        <v>2836</v>
       </c>
       <c r="F88" t="n">
         <v>3</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>RESOLUTE UA, NU</t>
+          <t>SODANKYLA ARCTIC RESEARCH CENTRE</t>
         </is>
       </c>
       <c r="H88" t="inlineStr"/>
@@ -9253,15 +9252,15 @@
         <v>0</v>
       </c>
       <c r="K88" t="n">
-        <v>-94.96805555555557</v>
+        <v>26.62888888888889</v>
       </c>
       <c r="L88" t="n">
-        <v>74.70416666666667</v>
+        <v>67.36666666666666</v>
       </c>
       <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr">
         <is>
-          <t>1948-01-01</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -9284,11 +9283,11 @@
         </is>
       </c>
       <c r="T88" t="n">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Rovaniemi</t>
         </is>
       </c>
       <c r="V88" t="inlineStr"/>

--- a/CEUAS/meta/inventory_comparison_2/code/station_configuration/hara_station_configuration.xlsx
+++ b/CEUAS/meta/inventory_comparison_2/code/station_configuration/hara_station_configuration.xlsx
@@ -685,11 +685,7 @@
       <c r="T2" t="n">
         <v>190</v>
       </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
@@ -826,7 +822,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0-20000-0-22408</t>
+          <t>0-20000-0-25248</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -836,14 +832,14 @@
         <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>22408</v>
+        <v>25248</v>
       </c>
       <c r="F4" t="n">
         <v>3</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>KALEVALA</t>
+          <t>ILIRNEJ</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
@@ -852,20 +848,20 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>31.15</v>
+        <v>167.9666666666667</v>
       </c>
       <c r="L4" t="n">
-        <v>65.21666666666667</v>
+        <v>67.25</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1962-08-20</t>
+          <t>1971-02-25</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1962-12-08</t>
+          <t>1971-06-25</t>
         </is>
       </c>
       <c r="P4" t="n">
@@ -885,11 +881,7 @@
       <c r="T4" t="n">
         <v>190</v>
       </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>Kostomuksha</t>
-        </is>
-      </c>
+      <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
@@ -926,7 +918,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0-20000-0-25248</t>
+          <t>0-20000-0-22408</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -936,14 +928,14 @@
         <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>25248</v>
+        <v>22408</v>
       </c>
       <c r="F5" t="n">
         <v>3</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>ILIRNEJ</t>
+          <t>KALEVALA</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
@@ -952,20 +944,20 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9666666666667</v>
+        <v>31.15</v>
       </c>
       <c r="L5" t="n">
-        <v>67.25</v>
+        <v>65.21666666666667</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1971-02-25</t>
+          <t>1962-08-20</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1971-06-25</t>
+          <t>1962-12-08</t>
         </is>
       </c>
       <c r="P5" t="n">
@@ -987,7 +979,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Kostomuksha</t>
         </is>
       </c>
       <c r="V5" t="inlineStr"/>
@@ -1085,11 +1077,7 @@
       <c r="T6" t="n">
         <v>190</v>
       </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
@@ -1385,11 +1373,7 @@
       <c r="T9" t="n">
         <v>83</v>
       </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
@@ -1485,11 +1469,7 @@
       <c r="T10" t="n">
         <v>83</v>
       </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
@@ -1585,11 +1565,7 @@
       <c r="T11" t="n">
         <v>83</v>
       </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
@@ -1685,11 +1661,7 @@
       <c r="T12" t="n">
         <v>83</v>
       </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
@@ -1885,11 +1857,7 @@
       <c r="T14" t="n">
         <v>190</v>
       </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
@@ -1985,11 +1953,7 @@
       <c r="T15" t="n">
         <v>166</v>
       </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
@@ -2185,11 +2149,7 @@
       <c r="T17" t="n">
         <v>200</v>
       </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr"/>
@@ -2385,11 +2345,7 @@
       <c r="T19" t="n">
         <v>190</v>
       </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr"/>
       <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
@@ -2585,11 +2541,7 @@
       <c r="T21" t="n">
         <v>166</v>
       </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
@@ -2726,7 +2678,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0-20300-0-04310</t>
+          <t>0-20000-0-23274</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2736,14 +2688,14 @@
         <v>22</v>
       </c>
       <c r="E23" t="n">
-        <v>4310</v>
+        <v>23274</v>
       </c>
       <c r="F23" t="n">
         <v>3</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>NORD</t>
+          <t>IGARKA</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
@@ -2752,10 +2704,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>-16.67</v>
+        <v>86.56666666666666</v>
       </c>
       <c r="L23" t="n">
-        <v>81.59999999999999</v>
+        <v>67.46666666666667</v>
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
@@ -2765,7 +2717,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>1996-05-10</t>
+          <t>1992-02-15</t>
         </is>
       </c>
       <c r="P23" t="n">
@@ -2783,11 +2735,11 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>83</v>
+        <v>190</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Dudinka</t>
         </is>
       </c>
       <c r="V23" t="inlineStr"/>
@@ -2826,7 +2778,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0-20111-0-71918</t>
+          <t>0-20001-0-22522</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -2836,14 +2788,14 @@
         <v>23</v>
       </c>
       <c r="E24" t="n">
-        <v>71918</v>
+        <v>22522</v>
       </c>
       <c r="F24" t="n">
         <v>3</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>ARCTIC BAY, NT</t>
+          <t>KEM'</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
@@ -2852,20 +2804,20 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>-85.15000000000001</v>
+        <v>34.65</v>
       </c>
       <c r="L24" t="n">
-        <v>73.03</v>
+        <v>64.95</v>
       </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
-          <t>1948-01-01</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>1966-06-30</t>
+          <t>1973-05-17</t>
         </is>
       </c>
       <c r="P24" t="n">
@@ -2883,11 +2835,11 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Kem</t>
         </is>
       </c>
       <c r="V24" t="inlineStr"/>
@@ -2926,7 +2878,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0-20001-0-22522</t>
+          <t>0-20300-0-04310</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2936,14 +2888,14 @@
         <v>24</v>
       </c>
       <c r="E25" t="n">
-        <v>22522</v>
+        <v>4310</v>
       </c>
       <c r="F25" t="n">
         <v>3</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>KEM'</t>
+          <t>NORD</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
@@ -2952,10 +2904,10 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>34.65</v>
+        <v>-16.67</v>
       </c>
       <c r="L25" t="n">
-        <v>64.95</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
@@ -2965,7 +2917,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>1973-05-17</t>
+          <t>1996-05-10</t>
         </is>
       </c>
       <c r="P25" t="n">
@@ -2983,13 +2935,9 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>190</v>
-      </c>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>Kem</t>
-        </is>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
@@ -3026,7 +2974,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0-20000-0-25042</t>
+          <t>0-20111-0-71918</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -3036,14 +2984,14 @@
         <v>25</v>
       </c>
       <c r="E26" t="n">
-        <v>25042</v>
+        <v>71918</v>
       </c>
       <c r="F26" t="n">
         <v>3</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>AJON</t>
+          <t>ARCTIC BAY, NT</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
@@ -3052,20 +3000,20 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>167.9688888888889</v>
+        <v>-85.15000000000001</v>
       </c>
       <c r="L26" t="n">
-        <v>69.91861111111112</v>
+        <v>73.03</v>
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1948-01-01</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>1995-12-09</t>
+          <t>1966-06-30</t>
         </is>
       </c>
       <c r="P26" t="n">
@@ -3083,13 +3031,9 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>190</v>
-      </c>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
@@ -3126,7 +3070,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0-20300-0-71968</t>
+          <t>0-20000-0-25042</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -3136,14 +3080,14 @@
         <v>26</v>
       </c>
       <c r="E27" t="n">
-        <v>71968</v>
+        <v>25042</v>
       </c>
       <c r="F27" t="n">
         <v>3</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>AKLAVIK</t>
+          <t>AJON</t>
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
@@ -3152,20 +3096,20 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>-135</v>
+        <v>167.9688888888889</v>
       </c>
       <c r="L27" t="n">
-        <v>68.23</v>
+        <v>69.91861111111112</v>
       </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
-          <t>1950-01-01</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>1960-09-12</t>
+          <t>1995-12-09</t>
         </is>
       </c>
       <c r="P27" t="n">
@@ -3183,13 +3127,9 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>37</v>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
@@ -3226,7 +3166,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0-20000-0-21946</t>
+          <t>0-20000-0-02185</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -3236,14 +3176,14 @@
         <v>27</v>
       </c>
       <c r="E28" t="n">
-        <v>21946</v>
+        <v>2057</v>
       </c>
       <c r="F28" t="n">
         <v>3</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>CHOKURDAH</t>
+          <t>LULEA-KALLAX (2185-0)</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
@@ -3252,20 +3192,20 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>147.8833333333333</v>
+        <v>22.11444444444444</v>
       </c>
       <c r="L28" t="n">
-        <v>70.61666666666666</v>
+        <v>65.54333333333334</v>
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1963-08-23</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>1996-07-06</t>
+          <t>1977-06-30</t>
         </is>
       </c>
       <c r="P28" t="n">
@@ -3283,11 +3223,11 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Lulea</t>
         </is>
       </c>
       <c r="V28" t="inlineStr"/>
@@ -3326,7 +3266,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0-20000-0-25399</t>
+          <t>0-20000-0-20667</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3336,14 +3276,14 @@
         <v>28</v>
       </c>
       <c r="E29" t="n">
-        <v>25399</v>
+        <v>20667</v>
       </c>
       <c r="F29" t="n">
         <v>3</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>MYS UELEN</t>
+          <t>IM. M.V. POPOVA</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
@@ -3352,20 +3292,20 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>-169.8347222222222</v>
+        <v>70.06638888888888</v>
       </c>
       <c r="L29" t="n">
-        <v>66.16277777777778</v>
+        <v>73.33277777777778</v>
       </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1958-05-03</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>1996-04-12</t>
+          <t>1995-02-24</t>
         </is>
       </c>
       <c r="P29" t="n">
@@ -3385,11 +3325,7 @@
       <c r="T29" t="n">
         <v>190</v>
       </c>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr"/>
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
@@ -3426,7 +3362,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0-20000-0-23078</t>
+          <t>0-20300-0-71968</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3436,14 +3372,14 @@
         <v>29</v>
       </c>
       <c r="E30" t="n">
-        <v>23078</v>
+        <v>71968</v>
       </c>
       <c r="F30" t="n">
         <v>3</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>NORIL'SK</t>
+          <t>AKLAVIK</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
@@ -3452,20 +3388,20 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>88.26388888888889</v>
+        <v>-135</v>
       </c>
       <c r="L30" t="n">
-        <v>69.34722222222221</v>
+        <v>68.23</v>
       </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
-          <t>1980-02-05</t>
+          <t>1950-01-01</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>1996-05-23</t>
+          <t>1960-09-12</t>
         </is>
       </c>
       <c r="P30" t="n">
@@ -3483,13 +3419,9 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>190</v>
-      </c>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>Norilsk</t>
-        </is>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
@@ -3526,7 +3458,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0-20300-0-04340</t>
+          <t>0-20000-0-21946</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3536,14 +3468,14 @@
         <v>30</v>
       </c>
       <c r="E31" t="n">
-        <v>4340</v>
+        <v>21946</v>
       </c>
       <c r="F31" t="n">
         <v>3</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>KAP TOBIN</t>
+          <t>CHOKURDAH</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
@@ -3552,10 +3484,10 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>-21.97</v>
+        <v>147.8833333333333</v>
       </c>
       <c r="L31" t="n">
-        <v>70.42</v>
+        <v>70.61666666666666</v>
       </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
@@ -3565,7 +3497,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>1980-10-28</t>
+          <t>1996-07-06</t>
         </is>
       </c>
       <c r="P31" t="n">
@@ -3583,13 +3515,9 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>83</v>
-      </c>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
@@ -3626,7 +3554,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0-20000-0-71938</t>
+          <t>0-20000-0-25399</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3636,14 +3564,14 @@
         <v>31</v>
       </c>
       <c r="E32" t="n">
-        <v>71938</v>
+        <v>25399</v>
       </c>
       <c r="F32" t="n">
         <v>3</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>KUGLUKTUK A, NU</t>
+          <t>MYS UELEN</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
@@ -3652,20 +3580,20 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>-115.1438888888889</v>
+        <v>-169.8347222222222</v>
       </c>
       <c r="L32" t="n">
-        <v>67.81666666666666</v>
+        <v>66.16277777777778</v>
       </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>1948-01-02</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>1970-02-17</t>
+          <t>1996-04-12</t>
         </is>
       </c>
       <c r="P32" t="n">
@@ -3683,13 +3611,9 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>37</v>
-      </c>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
       <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
@@ -3726,7 +3650,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0-20000-0-71090</t>
+          <t>0-20000-0-23078</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3736,14 +3660,14 @@
         <v>32</v>
       </c>
       <c r="E33" t="n">
-        <v>71090</v>
+        <v>23078</v>
       </c>
       <c r="F33" t="n">
         <v>3</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>CLYDE RIVER A, NU</t>
+          <t>NORIL'SK</t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
@@ -3752,20 +3676,20 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>-68.51694444444445</v>
+        <v>88.26388888888889</v>
       </c>
       <c r="L33" t="n">
-        <v>70.48583333333333</v>
+        <v>69.34722222222221</v>
       </c>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>1950-01-01</t>
+          <t>1980-02-05</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>1972-11-28</t>
+          <t>1996-05-23</t>
         </is>
       </c>
       <c r="P33" t="n">
@@ -3783,11 +3707,11 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Norilsk</t>
         </is>
       </c>
       <c r="V33" t="inlineStr"/>
@@ -3826,7 +3750,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0-20000-0-70133</t>
+          <t>0-20300-0-04340</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3836,14 +3760,14 @@
         <v>33</v>
       </c>
       <c r="E34" t="n">
-        <v>70133</v>
+        <v>4340</v>
       </c>
       <c r="F34" t="n">
         <v>3</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>KOTZEBUE, RALPH WIEN</t>
+          <t>KAP TOBIN</t>
         </is>
       </c>
       <c r="H34" t="inlineStr"/>
@@ -3852,20 +3776,20 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>-162.6133333333333</v>
+        <v>-21.97</v>
       </c>
       <c r="L34" t="n">
-        <v>66.8863888888889</v>
+        <v>70.42</v>
       </c>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>1962-03-04</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>1996-07-06</t>
+          <t>1980-10-28</t>
         </is>
       </c>
       <c r="P34" t="n">
@@ -3883,13 +3807,9 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>231</v>
-      </c>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
@@ -3926,7 +3846,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0-20000-0-20891</t>
+          <t>0-20000-0-25400</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -3936,14 +3856,14 @@
         <v>34</v>
       </c>
       <c r="E35" t="n">
-        <v>20891</v>
+        <v>25400</v>
       </c>
       <c r="F35" t="n">
         <v>3</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>HATANGA</t>
+          <t>ZYRYANKA (25400-0)</t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
@@ -3952,20 +3872,20 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>102.4663888888889</v>
+        <v>150.9</v>
       </c>
       <c r="L35" t="n">
-        <v>71.97722222222222</v>
+        <v>65.73333333333333</v>
       </c>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1963-04-11</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>1996-06-28</t>
+          <t>1996-07-06</t>
         </is>
       </c>
       <c r="P35" t="n">
@@ -3985,11 +3905,7 @@
       <c r="T35" t="n">
         <v>190</v>
       </c>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr"/>
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
@@ -4026,7 +3942,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0-20000-0-24125</t>
+          <t>0-20000-0-20107</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -4036,14 +3952,14 @@
         <v>35</v>
       </c>
       <c r="E36" t="n">
-        <v>24125</v>
+        <v>20107</v>
       </c>
       <c r="F36" t="n">
         <v>3</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>OLENEK (24125-0)</t>
+          <t>BARENTSBURG</t>
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
@@ -4052,10 +3968,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>112.4333333333333</v>
+        <v>14.22111111111111</v>
       </c>
       <c r="L36" t="n">
-        <v>68.5</v>
+        <v>78.05555555555556</v>
       </c>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
@@ -4065,7 +3981,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>1996-07-06</t>
+          <t>1995-01-27</t>
         </is>
       </c>
       <c r="P36" t="n">
@@ -4083,13 +3999,9 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>190</v>
-      </c>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>Udachnyy</t>
-        </is>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
@@ -4126,7 +4038,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0-20300-0-21358</t>
+          <t>0-20300-0-23146</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -4136,14 +4048,14 @@
         <v>36</v>
       </c>
       <c r="E37" t="n">
-        <v>21358</v>
+        <v>23146</v>
       </c>
       <c r="F37" t="n">
         <v>3</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>OSTROV ZOHOVA</t>
+          <t>MYS KAMENNY</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
@@ -4152,20 +4064,20 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>152.83</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="L37" t="n">
-        <v>76.15000000000001</v>
+        <v>68.47</v>
       </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>1958-05-02</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>1993-11-15</t>
+          <t>1995-04-04</t>
         </is>
       </c>
       <c r="P37" t="n">
@@ -4187,7 +4099,7 @@
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Pangody</t>
         </is>
       </c>
       <c r="V37" t="inlineStr"/>
@@ -4226,7 +4138,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0-20000-0-24266</t>
+          <t>0-20000-0-71938</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -4236,14 +4148,14 @@
         <v>37</v>
       </c>
       <c r="E38" t="n">
-        <v>24266</v>
+        <v>71938</v>
       </c>
       <c r="F38" t="n">
         <v>3</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>VERHOJANSK</t>
+          <t>KUGLUKTUK A, NU</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
@@ -4252,20 +4164,20 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>133.4</v>
+        <v>-115.1438888888889</v>
       </c>
       <c r="L38" t="n">
-        <v>67.56666666666666</v>
+        <v>67.81666666666666</v>
       </c>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1948-01-02</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>1996-07-06</t>
+          <t>1970-02-17</t>
         </is>
       </c>
       <c r="P38" t="n">
@@ -4283,13 +4195,9 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>190</v>
-      </c>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr"/>
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
@@ -4326,7 +4234,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0-20300-0-21504</t>
+          <t>0-20000-0-71090</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -4336,14 +4244,14 @@
         <v>38</v>
       </c>
       <c r="E39" t="n">
-        <v>21504</v>
+        <v>71090</v>
       </c>
       <c r="F39" t="n">
         <v>3</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>OSTROV PREOBRAZHENIA</t>
+          <t>CLYDE RIVER A, NU</t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
@@ -4352,20 +4260,20 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>112.93</v>
+        <v>-68.51694444444445</v>
       </c>
       <c r="L39" t="n">
-        <v>74.67</v>
+        <v>70.48583333333333</v>
       </c>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1950-01-01</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>1996-07-06</t>
+          <t>1972-11-28</t>
         </is>
       </c>
       <c r="P39" t="n">
@@ -4383,13 +4291,9 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>190</v>
-      </c>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr"/>
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
@@ -4426,7 +4330,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0-20000-0-25123</t>
+          <t>0-20000-0-70133</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -4436,14 +4340,14 @@
         <v>39</v>
       </c>
       <c r="E40" t="n">
-        <v>25123</v>
+        <v>70133</v>
       </c>
       <c r="F40" t="n">
         <v>3</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>CHERSKIJ</t>
+          <t>KOTZEBUE, RALPH WIEN</t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
@@ -4452,15 +4356,15 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>161.2833333333333</v>
+        <v>-162.6133333333333</v>
       </c>
       <c r="L40" t="n">
-        <v>68.75</v>
+        <v>66.8863888888889</v>
       </c>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1962-03-04</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -4483,13 +4387,9 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>190</v>
-      </c>
-      <c r="U40" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr"/>
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
@@ -4526,7 +4426,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0-20000-0-04339</t>
+          <t>0-20000-0-20891</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -4536,14 +4436,14 @@
         <v>40</v>
       </c>
       <c r="E41" t="n">
-        <v>4339</v>
+        <v>20891</v>
       </c>
       <c r="F41" t="n">
         <v>3</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>ITTOQQORTOORMIIT (SCORESBYSUND)</t>
+          <t>HATANGA</t>
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
@@ -4552,20 +4452,20 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>-21.95111111111111</v>
+        <v>102.4663888888889</v>
       </c>
       <c r="L41" t="n">
-        <v>70.48444444444445</v>
+        <v>71.97722222222222</v>
       </c>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>1980-10-25</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>1996-07-06</t>
+          <t>1996-06-28</t>
         </is>
       </c>
       <c r="P41" t="n">
@@ -4583,13 +4483,9 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>83</v>
-      </c>
-      <c r="U41" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
@@ -4626,7 +4522,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0-20300-0-21647</t>
+          <t>0-20000-0-24125</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -4636,14 +4532,14 @@
         <v>41</v>
       </c>
       <c r="E42" t="n">
-        <v>21647</v>
+        <v>24125</v>
       </c>
       <c r="F42" t="n">
         <v>3</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>MYS SHALAUROVA</t>
+          <t>OLENEK (24125-0)</t>
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
@@ -4652,10 +4548,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>143.533</v>
+        <v>112.4333333333333</v>
       </c>
       <c r="L42" t="n">
-        <v>73.2</v>
+        <v>68.5</v>
       </c>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
@@ -4665,7 +4561,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>1995-12-29</t>
+          <t>1996-07-06</t>
         </is>
       </c>
       <c r="P42" t="n">
@@ -4687,7 +4583,7 @@
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Udachnyy</t>
         </is>
       </c>
       <c r="V42" t="inlineStr"/>
@@ -4726,7 +4622,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0-20000-0-20674</t>
+          <t>0-20300-0-20274</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -4736,14 +4632,14 @@
         <v>42</v>
       </c>
       <c r="E43" t="n">
-        <v>20674</v>
+        <v>20274</v>
       </c>
       <c r="F43" t="n">
         <v>3</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>OSTROV DIKSON</t>
+          <t>OSTROV UEDINENIA</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
@@ -4752,10 +4648,10 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>80.4063888888889</v>
+        <v>82.23</v>
       </c>
       <c r="L43" t="n">
-        <v>73.51361111111112</v>
+        <v>77.5</v>
       </c>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
@@ -4765,7 +4661,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>1996-07-05</t>
+          <t>1996-01-03</t>
         </is>
       </c>
       <c r="P43" t="n">
@@ -4785,11 +4681,7 @@
       <c r="T43" t="n">
         <v>190</v>
       </c>
-      <c r="U43" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr"/>
       <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr"/>
@@ -4826,7 +4718,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0-20000-0-02185</t>
+          <t>0-20300-0-21358</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -4836,14 +4728,14 @@
         <v>43</v>
       </c>
       <c r="E44" t="n">
-        <v>2185</v>
+        <v>21358</v>
       </c>
       <c r="F44" t="n">
         <v>3</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>LULEA-KALLAX (2185-0)</t>
+          <t>OSTROV ZOHOVA</t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
@@ -4852,20 +4744,20 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>22.11444444444444</v>
+        <v>152.83</v>
       </c>
       <c r="L44" t="n">
-        <v>65.54333333333334</v>
+        <v>76.15000000000001</v>
       </c>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>1977-08-05</t>
+          <t>1958-05-02</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>1996-07-06</t>
+          <t>1993-11-15</t>
         </is>
       </c>
       <c r="P44" t="n">
@@ -4883,13 +4775,9 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>196</v>
-      </c>
-      <c r="U44" t="inlineStr">
-        <is>
-          <t>Lulea</t>
-        </is>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr"/>
       <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
@@ -4926,7 +4814,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0-20300-0-21965</t>
+          <t>0-20000-0-20069</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -4936,14 +4824,14 @@
         <v>44</v>
       </c>
       <c r="E45" t="n">
-        <v>21965</v>
+        <v>20069</v>
       </c>
       <c r="F45" t="n">
         <v>3</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>OSTROV CHETYREKHSTOLBO</t>
+          <t>OSTROV VIZE</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
@@ -4952,10 +4840,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>162.4</v>
+        <v>76.98055555555555</v>
       </c>
       <c r="L45" t="n">
-        <v>70.63</v>
+        <v>79.49083333333333</v>
       </c>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
@@ -4965,7 +4853,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>1996-05-27</t>
+          <t>1996-04-22</t>
         </is>
       </c>
       <c r="P45" t="n">
@@ -4985,11 +4873,7 @@
       <c r="T45" t="n">
         <v>190</v>
       </c>
-      <c r="U45" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr"/>
       <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
@@ -5026,7 +4910,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0-20000-0-22271</t>
+          <t>0-20000-0-24266</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -5036,14 +4920,14 @@
         <v>45</v>
       </c>
       <c r="E46" t="n">
-        <v>22271</v>
+        <v>24266</v>
       </c>
       <c r="F46" t="n">
         <v>3</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>SHOJNA</t>
+          <t>VERHOJANSK</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
@@ -5052,15 +4936,15 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>44.17416666666666</v>
+        <v>133.4</v>
       </c>
       <c r="L46" t="n">
-        <v>67.87666666666667</v>
+        <v>67.56666666666666</v>
       </c>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t>1963-07-22</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -5085,11 +4969,7 @@
       <c r="T46" t="n">
         <v>190</v>
       </c>
-      <c r="U46" t="inlineStr">
-        <is>
-          <t>Arkhangelsk</t>
-        </is>
-      </c>
+      <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr"/>
       <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
@@ -5126,7 +5006,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0-20000-0-21982</t>
+          <t>0-20001-0-20744</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -5136,14 +5016,14 @@
         <v>46</v>
       </c>
       <c r="E47" t="n">
-        <v>21982</v>
+        <v>20744</v>
       </c>
       <c r="F47" t="n">
         <v>3</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>OSTROV VRANGELJA</t>
+          <t>MALYE KARMAKULY (20744-1)</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
@@ -5152,15 +5032,15 @@
         <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>-178.65</v>
+        <v>52.7</v>
       </c>
       <c r="L47" t="n">
-        <v>70.98333333333333</v>
+        <v>72.36666666666666</v>
       </c>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1958-05-02</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -5187,7 +5067,7 @@
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Naryan-Mar</t>
         </is>
       </c>
       <c r="V47" t="inlineStr"/>
@@ -5226,7 +5106,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0-20000-0-21432</t>
+          <t>0-20300-0-21504</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -5236,14 +5116,14 @@
         <v>47</v>
       </c>
       <c r="E48" t="n">
-        <v>21432</v>
+        <v>21504</v>
       </c>
       <c r="F48" t="n">
         <v>3</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>OSTROV KOTEL'NYJ</t>
+          <t>OSTROV PREOBRAZHENIA</t>
         </is>
       </c>
       <c r="H48" t="inlineStr"/>
@@ -5252,10 +5132,10 @@
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>137.8666666666667</v>
+        <v>112.93</v>
       </c>
       <c r="L48" t="n">
-        <v>76</v>
+        <v>74.67</v>
       </c>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
@@ -5285,11 +5165,7 @@
       <c r="T48" t="n">
         <v>190</v>
       </c>
-      <c r="U48" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr"/>
       <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
@@ -5326,7 +5202,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0-20000-0-24343</t>
+          <t>0-20000-0-04339</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -5336,14 +5212,14 @@
         <v>48</v>
       </c>
       <c r="E49" t="n">
-        <v>24343</v>
+        <v>4339</v>
       </c>
       <c r="F49" t="n">
         <v>3</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>ZHIGANSK</t>
+          <t>ITTOQQORTOORMIIT (SCORESBYSUND)</t>
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
@@ -5352,15 +5228,15 @@
         <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>123.4</v>
+        <v>-21.95111111111111</v>
       </c>
       <c r="L49" t="n">
-        <v>66.76666666666667</v>
+        <v>70.48444444444445</v>
       </c>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
-          <t>1958-05-02</t>
+          <t>1980-10-25</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -5383,13 +5259,9 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>190</v>
-      </c>
-      <c r="U49" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr"/>
       <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
@@ -5426,7 +5298,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0-20000-0-20292</t>
+          <t>0-20000-0-25123</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -5436,14 +5308,14 @@
         <v>49</v>
       </c>
       <c r="E50" t="n">
-        <v>20292</v>
+        <v>25123</v>
       </c>
       <c r="F50" t="n">
         <v>3</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>GMO IM.E.K. FEDOROVA</t>
+          <t>CHERSKIJ</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
@@ -5452,10 +5324,10 @@
         <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>104.2919444444444</v>
+        <v>161.2833333333333</v>
       </c>
       <c r="L50" t="n">
-        <v>77.71305555555556</v>
+        <v>68.75</v>
       </c>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
@@ -5465,7 +5337,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>1996-05-11</t>
+          <t>1996-07-06</t>
         </is>
       </c>
       <c r="P50" t="n">
@@ -5485,11 +5357,7 @@
       <c r="T50" t="n">
         <v>190</v>
       </c>
-      <c r="U50" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr"/>
       <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
@@ -5526,7 +5394,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0-20000-0-21824</t>
+          <t>0-20000-0-22217</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -5536,14 +5404,14 @@
         <v>50</v>
       </c>
       <c r="E51" t="n">
-        <v>21824</v>
+        <v>22217</v>
       </c>
       <c r="F51" t="n">
         <v>3</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>TIKSI</t>
+          <t>KANDALAKSHA</t>
         </is>
       </c>
       <c r="H51" t="inlineStr"/>
@@ -5552,10 +5420,10 @@
         <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>128.9166666666667</v>
+        <v>32.35416666666667</v>
       </c>
       <c r="L51" t="n">
-        <v>71.58333333333333</v>
+        <v>67.16916666666667</v>
       </c>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
@@ -5565,7 +5433,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>1996-07-06</t>
+          <t>1996-06-25</t>
         </is>
       </c>
       <c r="P51" t="n">
@@ -5587,7 +5455,7 @@
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Kandalaksha</t>
         </is>
       </c>
       <c r="V51" t="inlineStr"/>
@@ -5626,7 +5494,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0-20000-0-04220</t>
+          <t>0-20000-0-20046</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -5636,14 +5504,14 @@
         <v>51</v>
       </c>
       <c r="E52" t="n">
-        <v>4220</v>
+        <v>20046</v>
       </c>
       <c r="F52" t="n">
         <v>3</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>AASIAAT (EGEDESMINDE)</t>
+          <t>POLARGMO IM. E.T. KRENKELJA</t>
         </is>
       </c>
       <c r="H52" t="inlineStr"/>
@@ -5652,10 +5520,10 @@
         <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>-52.85166666666667</v>
+        <v>58.05888888888889</v>
       </c>
       <c r="L52" t="n">
-        <v>68.70805555555556</v>
+        <v>80.62638888888888</v>
       </c>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
@@ -5683,13 +5551,9 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>83</v>
-      </c>
-      <c r="U52" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr"/>
       <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
@@ -5726,7 +5590,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0-20300-0-25173</t>
+          <t>0-20000-0-02185</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -5736,14 +5600,14 @@
         <v>52</v>
       </c>
       <c r="E53" t="n">
-        <v>25173</v>
+        <v>2185</v>
       </c>
       <c r="F53" t="n">
         <v>3</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>MYS SHMIDTA</t>
+          <t>LULEA-KALLAX (2185-0)</t>
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
@@ -5752,15 +5616,15 @@
         <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>-179.48</v>
+        <v>22.11444444444444</v>
       </c>
       <c r="L53" t="n">
-        <v>68.92</v>
+        <v>65.54333333333334</v>
       </c>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1977-08-05</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -5783,11 +5647,11 @@
         </is>
       </c>
       <c r="T53" t="n">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>Anadyr</t>
+          <t>Lulea</t>
         </is>
       </c>
       <c r="V53" t="inlineStr"/>
@@ -5826,7 +5690,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0-20000-0-04320</t>
+          <t>0-20300-0-21647</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -5836,14 +5700,14 @@
         <v>53</v>
       </c>
       <c r="E54" t="n">
-        <v>4320</v>
+        <v>21647</v>
       </c>
       <c r="F54" t="n">
         <v>3</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>DANMARKSHAVN</t>
+          <t>USAF-DS3-167</t>
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
@@ -5852,20 +5716,20 @@
         <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>-18.66805555555556</v>
+        <v>143.533</v>
       </c>
       <c r="L54" t="n">
-        <v>76.76944444444445</v>
+        <v>73.2</v>
       </c>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>1958-05-02</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>1996-07-06</t>
+          <t>1995-12-29</t>
         </is>
       </c>
       <c r="P54" t="n">
@@ -5883,13 +5747,9 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>83</v>
-      </c>
-      <c r="U54" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr"/>
       <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr"/>
@@ -5926,7 +5786,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0-20001-0-01028</t>
+          <t>0-20000-0-20674</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -5936,14 +5796,14 @@
         <v>54</v>
       </c>
       <c r="E55" t="n">
-        <v>1028</v>
+        <v>20674</v>
       </c>
       <c r="F55" t="n">
         <v>3</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>BJORNOYA (1028-1)</t>
+          <t>OSTROV DIKSON</t>
         </is>
       </c>
       <c r="H55" t="inlineStr"/>
@@ -5952,20 +5812,20 @@
         <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>19.00111111111111</v>
+        <v>80.4063888888889</v>
       </c>
       <c r="L55" t="n">
-        <v>74.50388888888889</v>
+        <v>73.51361111111112</v>
       </c>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>1958-05-02</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>1996-07-06</t>
+          <t>1996-07-05</t>
         </is>
       </c>
       <c r="P55" t="n">
@@ -5983,13 +5843,9 @@
         </is>
       </c>
       <c r="T55" t="n">
-        <v>166</v>
-      </c>
-      <c r="U55" t="inlineStr">
-        <is>
-          <t>Alta</t>
-        </is>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr"/>
       <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr"/>
@@ -6026,7 +5882,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0-20000-0-71074</t>
+          <t>0-20300-0-21965</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -6036,14 +5892,14 @@
         <v>55</v>
       </c>
       <c r="E56" t="n">
-        <v>71074</v>
+        <v>21965</v>
       </c>
       <c r="F56" t="n">
         <v>3</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>ISACHSEN (AUT), NU</t>
+          <t>OSTROV CHETYREKHSTOLBO</t>
         </is>
       </c>
       <c r="H56" t="inlineStr"/>
@@ -6052,20 +5908,20 @@
         <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>-103.5544444444444</v>
+        <v>162.4</v>
       </c>
       <c r="L56" t="n">
-        <v>78.79222222222222</v>
+        <v>70.63</v>
       </c>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>1948-08-18</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>1978-06-19</t>
+          <t>1996-05-27</t>
         </is>
       </c>
       <c r="P56" t="n">
@@ -6083,13 +5939,9 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>37</v>
-      </c>
-      <c r="U56" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr"/>
       <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
@@ -6126,7 +5978,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0-20000-0-04360</t>
+          <t>0-20000-0-21982</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -6136,14 +5988,14 @@
         <v>56</v>
       </c>
       <c r="E57" t="n">
-        <v>4360</v>
+        <v>21982</v>
       </c>
       <c r="F57" t="n">
         <v>3</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>TASIILAQ (AMMASSALIK)</t>
+          <t>OSTROV VRANGELJA</t>
         </is>
       </c>
       <c r="H57" t="inlineStr"/>
@@ -6152,10 +6004,10 @@
         <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>-37.63666666666666</v>
+        <v>-178.65</v>
       </c>
       <c r="L57" t="n">
-        <v>65.6111111111111</v>
+        <v>70.98333333333333</v>
       </c>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
@@ -6183,13 +6035,9 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>83</v>
-      </c>
-      <c r="U57" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr"/>
       <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr"/>
@@ -6226,7 +6074,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0-20300-0-71051</t>
+          <t>0-20000-0-20292</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -6236,14 +6084,14 @@
         <v>57</v>
       </c>
       <c r="E58" t="n">
-        <v>71051</v>
+        <v>20292</v>
       </c>
       <c r="F58" t="n">
         <v>3</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>SACHS HARBOUR</t>
+          <t>GMO IM.E.K. FEDOROVA</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
@@ -6252,20 +6100,20 @@
         <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>-125.27</v>
+        <v>104.2919444444444</v>
       </c>
       <c r="L58" t="n">
-        <v>72</v>
+        <v>77.71305555555556</v>
       </c>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>1955-11-01</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>1992-03-21</t>
+          <t>1996-05-11</t>
         </is>
       </c>
       <c r="P58" t="n">
@@ -6283,13 +6131,9 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>37</v>
-      </c>
-      <c r="U58" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr"/>
       <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr"/>
@@ -6326,7 +6170,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0-20001-0-71925</t>
+          <t>0-20000-0-22271</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -6336,14 +6180,14 @@
         <v>58</v>
       </c>
       <c r="E59" t="n">
-        <v>71925</v>
+        <v>22271</v>
       </c>
       <c r="F59" t="n">
         <v>3</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>CAMBRIDGE BAY UA, NU</t>
+          <t>SHOJNA</t>
         </is>
       </c>
       <c r="H59" t="inlineStr"/>
@@ -6352,15 +6196,15 @@
         <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>-105.0666666666667</v>
+        <v>44.17416666666666</v>
       </c>
       <c r="L59" t="n">
-        <v>69.13333333333334</v>
+        <v>67.87666666666667</v>
       </c>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
-          <t>1962-03-04</t>
+          <t>1963-07-22</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -6383,11 +6227,11 @@
         </is>
       </c>
       <c r="T59" t="n">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Arkhangelsk</t>
         </is>
       </c>
       <c r="V59" t="inlineStr"/>
@@ -6426,7 +6270,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0-20000-0-70086</t>
+          <t>0-20000-0-23022</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -6436,14 +6280,14 @@
         <v>59</v>
       </c>
       <c r="E60" t="n">
-        <v>70086</v>
+        <v>23022</v>
       </c>
       <c r="F60" t="n">
         <v>3</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>BARTER ISLAND</t>
+          <t>AMDERMA</t>
         </is>
       </c>
       <c r="H60" t="inlineStr"/>
@@ -6452,20 +6296,20 @@
         <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>-143.6333333333333</v>
+        <v>61.65777777777777</v>
       </c>
       <c r="L60" t="n">
-        <v>70.13333333333334</v>
+        <v>69.78333333333333</v>
       </c>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
-          <t>1953-04-04</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>1989-06-21</t>
+          <t>1996-07-06</t>
         </is>
       </c>
       <c r="P60" t="n">
@@ -6483,11 +6327,11 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>231</v>
+        <v>190</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Severnyy</t>
         </is>
       </c>
       <c r="V60" t="inlineStr"/>
@@ -6526,7 +6370,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0-20001-0-71957</t>
+          <t>0-20000-0-21432</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -6536,14 +6380,14 @@
         <v>60</v>
       </c>
       <c r="E61" t="n">
-        <v>71957</v>
+        <v>21432</v>
       </c>
       <c r="F61" t="n">
         <v>3</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>INUVIK UA, NWT</t>
+          <t>OSTROV KOTEL'NYJ</t>
         </is>
       </c>
       <c r="H61" t="inlineStr"/>
@@ -6552,15 +6396,15 @@
         <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>-133.5166666666667</v>
+        <v>137.8666666666667</v>
       </c>
       <c r="L61" t="n">
-        <v>68.31666666666666</v>
+        <v>76</v>
       </c>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
         <is>
-          <t>1960-09-12</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -6583,13 +6427,9 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>37</v>
-      </c>
-      <c r="U61" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr"/>
       <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr"/>
@@ -6626,7 +6466,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0-20001-0-71081</t>
+          <t>0-20000-0-24343</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -6636,14 +6476,14 @@
         <v>61</v>
       </c>
       <c r="E62" t="n">
-        <v>71081</v>
+        <v>24343</v>
       </c>
       <c r="F62" t="n">
         <v>3</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>HALL BEACH UA, NU</t>
+          <t>ZHIGANSK</t>
         </is>
       </c>
       <c r="H62" t="inlineStr"/>
@@ -6652,15 +6492,15 @@
         <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>-81.21666666666667</v>
+        <v>123.4</v>
       </c>
       <c r="L62" t="n">
-        <v>68.76666666666667</v>
+        <v>66.76666666666667</v>
       </c>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr">
         <is>
-          <t>1957-08-01</t>
+          <t>1958-05-02</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -6683,13 +6523,9 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>37</v>
-      </c>
-      <c r="U62" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr"/>
       <c r="W62" t="inlineStr"/>
       <c r="X62" t="inlineStr"/>
@@ -6726,7 +6562,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0-20000-0-04202</t>
+          <t>0-20001-0-01028</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -6736,14 +6572,14 @@
         <v>62</v>
       </c>
       <c r="E63" t="n">
-        <v>4202</v>
+        <v>1028</v>
       </c>
       <c r="F63" t="n">
         <v>3</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>PITUFFIK (THULE AIR BASE)</t>
+          <t>BJORNOYA (1028-1)</t>
         </is>
       </c>
       <c r="H63" t="inlineStr"/>
@@ -6752,15 +6588,15 @@
         <v>0</v>
       </c>
       <c r="K63" t="n">
-        <v>-68.75</v>
+        <v>19.00111111111111</v>
       </c>
       <c r="L63" t="n">
-        <v>76.53333333333333</v>
+        <v>74.50388888888889</v>
       </c>
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr">
         <is>
-          <t>1952-08-01</t>
+          <t>1958-05-02</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -6783,11 +6619,11 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>83</v>
+        <v>166</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Alta</t>
         </is>
       </c>
       <c r="V63" t="inlineStr"/>
@@ -6826,7 +6662,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0-20000-0-70026</t>
+          <t>0-20000-0-23330</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -6836,14 +6672,14 @@
         <v>63</v>
       </c>
       <c r="E64" t="n">
-        <v>70026</v>
+        <v>23330</v>
       </c>
       <c r="F64" t="n">
         <v>3</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>BARROW/W. POST W. ROGERS</t>
+          <t>SALEHARD</t>
         </is>
       </c>
       <c r="H64" t="inlineStr"/>
@@ -6852,15 +6688,15 @@
         <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>-156.7833333333333</v>
+        <v>66.67444444444445</v>
       </c>
       <c r="L64" t="n">
-        <v>71.28888888888889</v>
+        <v>66.53194444444445</v>
       </c>
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr">
         <is>
-          <t>1948-01-01</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -6883,11 +6719,11 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>231</v>
+        <v>190</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Salekhard</t>
         </is>
       </c>
       <c r="V64" t="inlineStr"/>
@@ -6926,7 +6762,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0-20001-0-71082</t>
+          <t>0-20000-0-23472</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -6936,14 +6772,14 @@
         <v>64</v>
       </c>
       <c r="E65" t="n">
-        <v>71082</v>
+        <v>23472</v>
       </c>
       <c r="F65" t="n">
         <v>3</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>ALERT UA, NU</t>
+          <t>TURUHANSK</t>
         </is>
       </c>
       <c r="H65" t="inlineStr"/>
@@ -6952,15 +6788,15 @@
         <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>-62.33333333333334</v>
+        <v>87.98888888888889</v>
       </c>
       <c r="L65" t="n">
-        <v>82.5</v>
+        <v>65.79444444444444</v>
       </c>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr">
         <is>
-          <t>1950-09-10</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -6983,11 +6819,11 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Norilsk</t>
         </is>
       </c>
       <c r="V65" t="inlineStr"/>
@@ -7026,7 +6862,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0-20001-0-71043</t>
+          <t>0-20000-0-23205</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -7036,14 +6872,14 @@
         <v>65</v>
       </c>
       <c r="E66" t="n">
-        <v>71043</v>
+        <v>23205</v>
       </c>
       <c r="F66" t="n">
         <v>3</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>NORMAN WELLS UA, NWT</t>
+          <t>NAR'JAN-MAR</t>
         </is>
       </c>
       <c r="H66" t="inlineStr"/>
@@ -7052,15 +6888,15 @@
         <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>-126.75</v>
+        <v>53.0175</v>
       </c>
       <c r="L66" t="n">
-        <v>65.28333333333333</v>
+        <v>67.625</v>
       </c>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr">
         <is>
-          <t>1955-07-01</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -7083,11 +6919,11 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Naryan-Mar</t>
         </is>
       </c>
       <c r="V66" t="inlineStr"/>
@@ -7126,7 +6962,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0-20001-0-71917</t>
+          <t>0-20000-0-01152</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -7136,14 +6972,14 @@
         <v>66</v>
       </c>
       <c r="E67" t="n">
-        <v>71917</v>
+        <v>1152</v>
       </c>
       <c r="F67" t="n">
         <v>3</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>EUREKA UA, NU</t>
+          <t>BODO VI</t>
         </is>
       </c>
       <c r="H67" t="inlineStr"/>
@@ -7152,15 +6988,15 @@
         <v>0</v>
       </c>
       <c r="K67" t="n">
-        <v>-85.93333333333334</v>
+        <v>14.35861111111111</v>
       </c>
       <c r="L67" t="n">
-        <v>79.98333333333333</v>
+        <v>67.26694444444445</v>
       </c>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr">
         <is>
-          <t>1948-01-01</t>
+          <t>1958-05-02</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -7183,11 +7019,11 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>37</v>
+        <v>166</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Bodo</t>
         </is>
       </c>
       <c r="V67" t="inlineStr"/>
@@ -7226,7 +7062,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0-20300-0-71072</t>
+          <t>0-20000-0-21824</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -7236,14 +7072,14 @@
         <v>67</v>
       </c>
       <c r="E68" t="n">
-        <v>71072</v>
+        <v>21824</v>
       </c>
       <c r="F68" t="n">
         <v>3</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>MOULD BAY</t>
+          <t>TIKSI</t>
         </is>
       </c>
       <c r="H68" t="inlineStr"/>
@@ -7252,15 +7088,15 @@
         <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>-119.35</v>
+        <v>128.9166666666667</v>
       </c>
       <c r="L68" t="n">
-        <v>76.25</v>
+        <v>71.58333333333333</v>
       </c>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr">
         <is>
-          <t>1948-06-06</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -7283,13 +7119,9 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>37</v>
-      </c>
-      <c r="U68" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="U68" t="inlineStr"/>
       <c r="V68" t="inlineStr"/>
       <c r="W68" t="inlineStr"/>
       <c r="X68" t="inlineStr"/>
@@ -7326,7 +7158,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0-20001-0-71924</t>
+          <t>0-20300-0-25173</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -7336,14 +7168,14 @@
         <v>68</v>
       </c>
       <c r="E69" t="n">
-        <v>71924</v>
+        <v>25173</v>
       </c>
       <c r="F69" t="n">
         <v>3</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>RESOLUTE UA, NU</t>
+          <t>MYS SHMIDTA</t>
         </is>
       </c>
       <c r="H69" t="inlineStr"/>
@@ -7352,15 +7184,15 @@
         <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>-94.96805555555557</v>
+        <v>-179.48</v>
       </c>
       <c r="L69" t="n">
-        <v>74.70416666666667</v>
+        <v>68.92</v>
       </c>
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr">
         <is>
-          <t>1948-01-01</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -7383,11 +7215,11 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Anadyr</t>
         </is>
       </c>
       <c r="V69" t="inlineStr"/>
@@ -7426,7 +7258,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0-20000-0-23274</t>
+          <t>0-20000-0-23415</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -7436,14 +7268,14 @@
         <v>69</v>
       </c>
       <c r="E70" t="n">
-        <v>23274</v>
+        <v>23418</v>
       </c>
       <c r="F70" t="n">
         <v>3</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>IGARKA</t>
+          <t>PECHORA (23415-0)</t>
         </is>
       </c>
       <c r="H70" t="inlineStr"/>
@@ -7452,10 +7284,10 @@
         <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>86.56666666666666</v>
+        <v>57.1</v>
       </c>
       <c r="L70" t="n">
-        <v>67.46666666666667</v>
+        <v>65.11666666666666</v>
       </c>
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr">
@@ -7465,7 +7297,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>1992-02-15</t>
+          <t>1996-07-06</t>
         </is>
       </c>
       <c r="P70" t="n">
@@ -7487,7 +7319,7 @@
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>Dudinka</t>
+          <t>Pechora</t>
         </is>
       </c>
       <c r="V70" t="inlineStr"/>
@@ -7526,7 +7358,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0-20000-0-02185</t>
+          <t>0-20000-0-04320</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -7536,14 +7368,14 @@
         <v>70</v>
       </c>
       <c r="E71" t="n">
-        <v>2057</v>
+        <v>4320</v>
       </c>
       <c r="F71" t="n">
         <v>3</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>LULEA-KALLAX (2185-0)</t>
+          <t>DANMARKSHAVN</t>
         </is>
       </c>
       <c r="H71" t="inlineStr"/>
@@ -7552,20 +7384,20 @@
         <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>22.11444444444444</v>
+        <v>-18.66805555555556</v>
       </c>
       <c r="L71" t="n">
-        <v>65.54333333333334</v>
+        <v>76.76944444444445</v>
       </c>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr">
         <is>
-          <t>1963-08-23</t>
+          <t>1958-05-02</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>1977-06-30</t>
+          <t>1996-07-06</t>
         </is>
       </c>
       <c r="P71" t="n">
@@ -7583,13 +7415,9 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>196</v>
-      </c>
-      <c r="U71" t="inlineStr">
-        <is>
-          <t>Lulea</t>
-        </is>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="U71" t="inlineStr"/>
       <c r="V71" t="inlineStr"/>
       <c r="W71" t="inlineStr"/>
       <c r="X71" t="inlineStr"/>
@@ -7626,7 +7454,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0-20000-0-20667</t>
+          <t>0-20000-0-04220</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -7636,14 +7464,14 @@
         <v>71</v>
       </c>
       <c r="E72" t="n">
-        <v>20667</v>
+        <v>4220</v>
       </c>
       <c r="F72" t="n">
         <v>3</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>IM. M.V. POPOVA</t>
+          <t>AASIAAT (EGEDESMINDE)</t>
         </is>
       </c>
       <c r="H72" t="inlineStr"/>
@@ -7652,20 +7480,20 @@
         <v>0</v>
       </c>
       <c r="K72" t="n">
-        <v>70.06638888888888</v>
+        <v>-52.85166666666667</v>
       </c>
       <c r="L72" t="n">
-        <v>73.33277777777778</v>
+        <v>68.70805555555556</v>
       </c>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr">
         <is>
-          <t>1958-05-03</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>1995-02-24</t>
+          <t>1996-07-06</t>
         </is>
       </c>
       <c r="P72" t="n">
@@ -7683,13 +7511,9 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>190</v>
-      </c>
-      <c r="U72" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="U72" t="inlineStr"/>
       <c r="V72" t="inlineStr"/>
       <c r="W72" t="inlineStr"/>
       <c r="X72" t="inlineStr"/>
@@ -7726,7 +7550,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0-20000-0-25400</t>
+          <t>0-20000-0-04360</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -7736,14 +7560,14 @@
         <v>72</v>
       </c>
       <c r="E73" t="n">
-        <v>25400</v>
+        <v>4360</v>
       </c>
       <c r="F73" t="n">
         <v>3</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>ZYRYANKA (25400-0)</t>
+          <t>TASIILAQ (AMMASSALIK)</t>
         </is>
       </c>
       <c r="H73" t="inlineStr"/>
@@ -7752,15 +7576,15 @@
         <v>0</v>
       </c>
       <c r="K73" t="n">
-        <v>150.9</v>
+        <v>-37.63666666666666</v>
       </c>
       <c r="L73" t="n">
-        <v>65.73333333333333</v>
+        <v>65.6111111111111</v>
       </c>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr">
         <is>
-          <t>1963-04-11</t>
+          <t>1958-05-01</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -7783,13 +7607,9 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>190</v>
-      </c>
-      <c r="U73" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="U73" t="inlineStr"/>
       <c r="V73" t="inlineStr"/>
       <c r="W73" t="inlineStr"/>
       <c r="X73" t="inlineStr"/>
@@ -7826,7 +7646,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0-20000-0-20107</t>
+          <t>0-20000-0-71074</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -7836,14 +7656,14 @@
         <v>73</v>
       </c>
       <c r="E74" t="n">
-        <v>20107</v>
+        <v>71074</v>
       </c>
       <c r="F74" t="n">
         <v>3</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>BARENTSBURG</t>
+          <t>ISACHSEN (AUT), NU</t>
         </is>
       </c>
       <c r="H74" t="inlineStr"/>
@@ -7852,20 +7672,20 @@
         <v>0</v>
       </c>
       <c r="K74" t="n">
-        <v>14.22111111111111</v>
+        <v>-103.5544444444444</v>
       </c>
       <c r="L74" t="n">
-        <v>78.05555555555556</v>
+        <v>78.79222222222222</v>
       </c>
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1948-08-18</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>1995-01-27</t>
+          <t>1978-06-19</t>
         </is>
       </c>
       <c r="P74" t="n">
@@ -7883,13 +7703,9 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>200</v>
-      </c>
-      <c r="U74" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="U74" t="inlineStr"/>
       <c r="V74" t="inlineStr"/>
       <c r="W74" t="inlineStr"/>
       <c r="X74" t="inlineStr"/>
@@ -7926,7 +7742,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0-20300-0-23146</t>
+          <t>0-20000-0-22113</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -7936,14 +7752,14 @@
         <v>74</v>
       </c>
       <c r="E75" t="n">
-        <v>23146</v>
+        <v>22113</v>
       </c>
       <c r="F75" t="n">
         <v>3</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>MYS KAMENNY</t>
+          <t>MURMANSK (22113-0)</t>
         </is>
       </c>
       <c r="H75" t="inlineStr"/>
@@ -7952,10 +7768,10 @@
         <v>0</v>
       </c>
       <c r="K75" t="n">
-        <v>73.59999999999999</v>
+        <v>33.04277777777778</v>
       </c>
       <c r="L75" t="n">
-        <v>68.47</v>
+        <v>68.95583333333333</v>
       </c>
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr">
@@ -7965,7 +7781,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>1995-04-04</t>
+          <t>1996-07-06</t>
         </is>
       </c>
       <c r="P75" t="n">
@@ -7987,7 +7803,7 @@
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>Pangody</t>
+          <t>Murmansk</t>
         </is>
       </c>
       <c r="V75" t="inlineStr"/>
@@ -8026,7 +7842,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0-20001-0-20744</t>
+          <t>0-20300-0-71051</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -8036,14 +7852,14 @@
         <v>75</v>
       </c>
       <c r="E76" t="n">
-        <v>20744</v>
+        <v>71051</v>
       </c>
       <c r="F76" t="n">
         <v>3</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>MALYE KARMAKULY (20744-1)</t>
+          <t>SACHS HARBOUR</t>
         </is>
       </c>
       <c r="H76" t="inlineStr"/>
@@ -8052,20 +7868,20 @@
         <v>0</v>
       </c>
       <c r="K76" t="n">
-        <v>52.7</v>
+        <v>-125.27</v>
       </c>
       <c r="L76" t="n">
-        <v>72.36666666666666</v>
+        <v>72</v>
       </c>
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr">
         <is>
-          <t>1958-05-02</t>
+          <t>1955-11-01</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>1996-07-06</t>
+          <t>1992-03-21</t>
         </is>
       </c>
       <c r="P76" t="n">
@@ -8083,13 +7899,9 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>190</v>
-      </c>
-      <c r="U76" t="inlineStr">
-        <is>
-          <t>Naryan-Mar</t>
-        </is>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="U76" t="inlineStr"/>
       <c r="V76" t="inlineStr"/>
       <c r="W76" t="inlineStr"/>
       <c r="X76" t="inlineStr"/>
@@ -8126,7 +7938,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0-20300-0-20274</t>
+          <t>0-20000-0-70086</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -8136,14 +7948,14 @@
         <v>76</v>
       </c>
       <c r="E77" t="n">
-        <v>20274</v>
+        <v>70086</v>
       </c>
       <c r="F77" t="n">
         <v>3</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>OSTROV UEDINENIA</t>
+          <t>BARTER ISLAND</t>
         </is>
       </c>
       <c r="H77" t="inlineStr"/>
@@ -8152,20 +7964,20 @@
         <v>0</v>
       </c>
       <c r="K77" t="n">
-        <v>82.23</v>
+        <v>-143.6333333333333</v>
       </c>
       <c r="L77" t="n">
-        <v>77.5</v>
+        <v>70.13333333333334</v>
       </c>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1953-04-04</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>1996-01-03</t>
+          <t>1989-06-21</t>
         </is>
       </c>
       <c r="P77" t="n">
@@ -8183,13 +7995,9 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>190</v>
-      </c>
-      <c r="U77" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="U77" t="inlineStr"/>
       <c r="V77" t="inlineStr"/>
       <c r="W77" t="inlineStr"/>
       <c r="X77" t="inlineStr"/>
@@ -8226,7 +8034,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0-20000-0-20069</t>
+          <t>0-20000-0-02836</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -8236,14 +8044,14 @@
         <v>77</v>
       </c>
       <c r="E78" t="n">
-        <v>20069</v>
+        <v>2836</v>
       </c>
       <c r="F78" t="n">
         <v>3</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>OSTROV VIZE</t>
+          <t>SODANKYLA ARCTIC RESEARCH CENTRE</t>
         </is>
       </c>
       <c r="H78" t="inlineStr"/>
@@ -8252,10 +8060,10 @@
         <v>0</v>
       </c>
       <c r="K78" t="n">
-        <v>76.98055555555555</v>
+        <v>26.62888888888889</v>
       </c>
       <c r="L78" t="n">
-        <v>79.49083333333333</v>
+        <v>67.36666666666666</v>
       </c>
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr">
@@ -8265,7 +8073,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>1996-04-22</t>
+          <t>1996-07-06</t>
         </is>
       </c>
       <c r="P78" t="n">
@@ -8283,11 +8091,11 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>190</v>
+        <v>69</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Rovaniemi</t>
         </is>
       </c>
       <c r="V78" t="inlineStr"/>
@@ -8326,7 +8134,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0-20000-0-22217</t>
+          <t>0-20000-0-04202</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -8336,14 +8144,14 @@
         <v>78</v>
       </c>
       <c r="E79" t="n">
-        <v>22217</v>
+        <v>4202</v>
       </c>
       <c r="F79" t="n">
         <v>3</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>KANDALAKSHA</t>
+          <t>PITUFFIK (THULE AIR BASE)</t>
         </is>
       </c>
       <c r="H79" t="inlineStr"/>
@@ -8352,20 +8160,20 @@
         <v>0</v>
       </c>
       <c r="K79" t="n">
-        <v>32.35416666666667</v>
+        <v>-68.75</v>
       </c>
       <c r="L79" t="n">
-        <v>67.16916666666667</v>
+        <v>76.53333333333333</v>
       </c>
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1952-08-01</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>1996-06-25</t>
+          <t>1996-07-06</t>
         </is>
       </c>
       <c r="P79" t="n">
@@ -8383,13 +8191,9 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>190</v>
-      </c>
-      <c r="U79" t="inlineStr">
-        <is>
-          <t>Kandalaksha</t>
-        </is>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="U79" t="inlineStr"/>
       <c r="V79" t="inlineStr"/>
       <c r="W79" t="inlineStr"/>
       <c r="X79" t="inlineStr"/>
@@ -8426,7 +8230,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0-20000-0-20046</t>
+          <t>0-20001-0-71925</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -8436,14 +8240,14 @@
         <v>79</v>
       </c>
       <c r="E80" t="n">
-        <v>20046</v>
+        <v>71925</v>
       </c>
       <c r="F80" t="n">
         <v>3</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>POLARGMO IM. E.T. KRENKELJA</t>
+          <t>CAMBRIDGE BAY UA, NU</t>
         </is>
       </c>
       <c r="H80" t="inlineStr"/>
@@ -8452,15 +8256,15 @@
         <v>0</v>
       </c>
       <c r="K80" t="n">
-        <v>58.05888888888889</v>
+        <v>-105.0666666666667</v>
       </c>
       <c r="L80" t="n">
-        <v>80.62638888888888</v>
+        <v>69.13333333333334</v>
       </c>
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1962-03-04</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -8483,13 +8287,9 @@
         </is>
       </c>
       <c r="T80" t="n">
-        <v>190</v>
-      </c>
-      <c r="U80" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="U80" t="inlineStr"/>
       <c r="V80" t="inlineStr"/>
       <c r="W80" t="inlineStr"/>
       <c r="X80" t="inlineStr"/>
@@ -8526,7 +8326,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0-20000-0-23022</t>
+          <t>0-20001-0-71081</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -8536,14 +8336,14 @@
         <v>80</v>
       </c>
       <c r="E81" t="n">
-        <v>23022</v>
+        <v>71081</v>
       </c>
       <c r="F81" t="n">
         <v>3</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>AMDERMA</t>
+          <t>HALL BEACH UA, NU</t>
         </is>
       </c>
       <c r="H81" t="inlineStr"/>
@@ -8552,15 +8352,15 @@
         <v>0</v>
       </c>
       <c r="K81" t="n">
-        <v>61.65777777777777</v>
+        <v>-81.21666666666667</v>
       </c>
       <c r="L81" t="n">
-        <v>69.78333333333333</v>
+        <v>68.76666666666667</v>
       </c>
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1957-08-01</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -8583,13 +8383,9 @@
         </is>
       </c>
       <c r="T81" t="n">
-        <v>190</v>
-      </c>
-      <c r="U81" t="inlineStr">
-        <is>
-          <t>Severnyy</t>
-        </is>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="U81" t="inlineStr"/>
       <c r="V81" t="inlineStr"/>
       <c r="W81" t="inlineStr"/>
       <c r="X81" t="inlineStr"/>
@@ -8626,7 +8422,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>0-20000-0-23330</t>
+          <t>0-20001-0-71082</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -8636,14 +8432,14 @@
         <v>81</v>
       </c>
       <c r="E82" t="n">
-        <v>23330</v>
+        <v>71082</v>
       </c>
       <c r="F82" t="n">
         <v>3</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>SALEHARD</t>
+          <t>ALERT UA, NU</t>
         </is>
       </c>
       <c r="H82" t="inlineStr"/>
@@ -8652,15 +8448,15 @@
         <v>0</v>
       </c>
       <c r="K82" t="n">
-        <v>66.67444444444445</v>
+        <v>-62.33333333333334</v>
       </c>
       <c r="L82" t="n">
-        <v>66.53194444444445</v>
+        <v>82.5</v>
       </c>
       <c r="M82" t="inlineStr"/>
       <c r="N82" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1950-09-10</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -8683,13 +8479,9 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>190</v>
-      </c>
-      <c r="U82" t="inlineStr">
-        <is>
-          <t>Salekhard</t>
-        </is>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="U82" t="inlineStr"/>
       <c r="V82" t="inlineStr"/>
       <c r="W82" t="inlineStr"/>
       <c r="X82" t="inlineStr"/>
@@ -8726,7 +8518,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>0-20000-0-01152</t>
+          <t>0-20001-0-71043</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -8736,14 +8528,14 @@
         <v>82</v>
       </c>
       <c r="E83" t="n">
-        <v>1152</v>
+        <v>71043</v>
       </c>
       <c r="F83" t="n">
         <v>3</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>BODO VI</t>
+          <t>NORMAN WELLS UA, NWT</t>
         </is>
       </c>
       <c r="H83" t="inlineStr"/>
@@ -8752,15 +8544,15 @@
         <v>0</v>
       </c>
       <c r="K83" t="n">
-        <v>14.35861111111111</v>
+        <v>-126.75</v>
       </c>
       <c r="L83" t="n">
-        <v>67.26694444444445</v>
+        <v>65.28333333333333</v>
       </c>
       <c r="M83" t="inlineStr"/>
       <c r="N83" t="inlineStr">
         <is>
-          <t>1958-05-02</t>
+          <t>1955-07-01</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -8783,13 +8575,9 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>166</v>
-      </c>
-      <c r="U83" t="inlineStr">
-        <is>
-          <t>Bodo</t>
-        </is>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="U83" t="inlineStr"/>
       <c r="V83" t="inlineStr"/>
       <c r="W83" t="inlineStr"/>
       <c r="X83" t="inlineStr"/>
@@ -8826,7 +8614,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>0-20000-0-23415</t>
+          <t>0-20000-0-70026</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -8836,14 +8624,14 @@
         <v>83</v>
       </c>
       <c r="E84" t="n">
-        <v>23418</v>
+        <v>70026</v>
       </c>
       <c r="F84" t="n">
         <v>3</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>PECHORA (23415-0)</t>
+          <t>BARROW/W. POST W. ROGERS</t>
         </is>
       </c>
       <c r="H84" t="inlineStr"/>
@@ -8852,15 +8640,15 @@
         <v>0</v>
       </c>
       <c r="K84" t="n">
-        <v>57.1</v>
+        <v>-156.7833333333333</v>
       </c>
       <c r="L84" t="n">
-        <v>65.11666666666666</v>
+        <v>71.28888888888889</v>
       </c>
       <c r="M84" t="inlineStr"/>
       <c r="N84" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1948-01-01</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -8883,13 +8671,9 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>190</v>
-      </c>
-      <c r="U84" t="inlineStr">
-        <is>
-          <t>Pechora</t>
-        </is>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="U84" t="inlineStr"/>
       <c r="V84" t="inlineStr"/>
       <c r="W84" t="inlineStr"/>
       <c r="X84" t="inlineStr"/>
@@ -8926,7 +8710,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>0-20000-0-23205</t>
+          <t>0-20001-0-71957</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -8936,14 +8720,14 @@
         <v>84</v>
       </c>
       <c r="E85" t="n">
-        <v>23205</v>
+        <v>71957</v>
       </c>
       <c r="F85" t="n">
         <v>3</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>NAR'JAN-MAR</t>
+          <t>INUVIK UA, NWT</t>
         </is>
       </c>
       <c r="H85" t="inlineStr"/>
@@ -8952,15 +8736,15 @@
         <v>0</v>
       </c>
       <c r="K85" t="n">
-        <v>53.0175</v>
+        <v>-133.5166666666667</v>
       </c>
       <c r="L85" t="n">
-        <v>67.625</v>
+        <v>68.31666666666666</v>
       </c>
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1960-09-12</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -8983,13 +8767,9 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>190</v>
-      </c>
-      <c r="U85" t="inlineStr">
-        <is>
-          <t>Naryan-Mar</t>
-        </is>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="U85" t="inlineStr"/>
       <c r="V85" t="inlineStr"/>
       <c r="W85" t="inlineStr"/>
       <c r="X85" t="inlineStr"/>
@@ -9026,7 +8806,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>0-20000-0-22113</t>
+          <t>0-20001-0-71917</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -9036,14 +8816,14 @@
         <v>85</v>
       </c>
       <c r="E86" t="n">
-        <v>22113</v>
+        <v>71917</v>
       </c>
       <c r="F86" t="n">
         <v>3</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>MURMANSK (22113-0)</t>
+          <t>EUREKA UA, NU</t>
         </is>
       </c>
       <c r="H86" t="inlineStr"/>
@@ -9052,15 +8832,15 @@
         <v>0</v>
       </c>
       <c r="K86" t="n">
-        <v>33.04277777777778</v>
+        <v>-85.93333333333334</v>
       </c>
       <c r="L86" t="n">
-        <v>68.95583333333333</v>
+        <v>79.98333333333333</v>
       </c>
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1948-01-01</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -9083,13 +8863,9 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>190</v>
-      </c>
-      <c r="U86" t="inlineStr">
-        <is>
-          <t>Murmansk</t>
-        </is>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="U86" t="inlineStr"/>
       <c r="V86" t="inlineStr"/>
       <c r="W86" t="inlineStr"/>
       <c r="X86" t="inlineStr"/>
@@ -9126,7 +8902,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>0-20000-0-23472</t>
+          <t>0-20300-0-71072</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -9136,14 +8912,14 @@
         <v>86</v>
       </c>
       <c r="E87" t="n">
-        <v>23472</v>
+        <v>71072</v>
       </c>
       <c r="F87" t="n">
         <v>3</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>TURUHANSK</t>
+          <t>MOULD BAY</t>
         </is>
       </c>
       <c r="H87" t="inlineStr"/>
@@ -9152,15 +8928,15 @@
         <v>0</v>
       </c>
       <c r="K87" t="n">
-        <v>87.98888888888889</v>
+        <v>-119.35</v>
       </c>
       <c r="L87" t="n">
-        <v>65.79444444444444</v>
+        <v>76.25</v>
       </c>
       <c r="M87" t="inlineStr"/>
       <c r="N87" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1948-06-06</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -9183,13 +8959,9 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>190</v>
-      </c>
-      <c r="U87" t="inlineStr">
-        <is>
-          <t>Norilsk</t>
-        </is>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="U87" t="inlineStr"/>
       <c r="V87" t="inlineStr"/>
       <c r="W87" t="inlineStr"/>
       <c r="X87" t="inlineStr"/>
@@ -9226,7 +8998,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>0-20000-0-02836</t>
+          <t>0-20001-0-71924</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -9236,14 +9008,14 @@
         <v>87</v>
       </c>
       <c r="E88" t="n">
-        <v>2836</v>
+        <v>71924</v>
       </c>
       <c r="F88" t="n">
         <v>3</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>SODANKYLA ARCTIC RESEARCH CENTRE</t>
+          <t>RESOLUTE UA, NU</t>
         </is>
       </c>
       <c r="H88" t="inlineStr"/>
@@ -9252,15 +9024,15 @@
         <v>0</v>
       </c>
       <c r="K88" t="n">
-        <v>26.62888888888889</v>
+        <v>-94.96805555555557</v>
       </c>
       <c r="L88" t="n">
-        <v>67.36666666666666</v>
+        <v>74.70416666666667</v>
       </c>
       <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr">
         <is>
-          <t>1958-05-01</t>
+          <t>1948-01-01</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -9283,13 +9055,9 @@
         </is>
       </c>
       <c r="T88" t="n">
-        <v>69</v>
-      </c>
-      <c r="U88" t="inlineStr">
-        <is>
-          <t>Rovaniemi</t>
-        </is>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="U88" t="inlineStr"/>
       <c r="V88" t="inlineStr"/>
       <c r="W88" t="inlineStr"/>
       <c r="X88" t="inlineStr"/>
